--- a/capiq_data/in_process_data/IQ291981.xlsx
+++ b/capiq_data/in_process_data/IQ291981.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0F323F-5FD5-43C6-95BE-822413D1E9D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0C73B9-200F-4099-9737-E1FD1E9FFC75}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"44f58a4c-e413-42b9-b6f8-b5f87a720f1d"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"ff12d7f7-b017-43af-b804-cc96e5d5127b"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -175,6 +175,123 @@
     <t>IQ_NI</t>
   </si>
   <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
+  </si>
+  <si>
+    <t>FQ42010</t>
+  </si>
+  <si>
+    <t>FQ12011</t>
+  </si>
+  <si>
     <t>FQ22011</t>
   </si>
   <si>
@@ -296,6 +413,9 @@
   </si>
   <si>
     <t>FQ22021</t>
+  </si>
+  <si>
+    <t>FQ32021</t>
   </si>
 </sst>
 </file>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40512</v>
+        <v>36950</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>457</v>
+        <v>97.4</v>
       </c>
       <c r="D2">
-        <v>4842</v>
+        <v>2170.1</v>
       </c>
       <c r="E2">
-        <v>2792</v>
+        <v>1669.7</v>
       </c>
       <c r="F2">
-        <v>2193</v>
+        <v>828.6</v>
       </c>
       <c r="G2">
-        <v>10916</v>
+        <v>3660.8</v>
       </c>
       <c r="H2">
-        <v>14464</v>
+        <v>5966.2</v>
       </c>
       <c r="I2">
-        <v>1225</v>
+        <v>482.6</v>
       </c>
       <c r="J2">
-        <v>338</v>
+        <v>452.9</v>
       </c>
       <c r="K2">
-        <v>128</v>
+        <v>879.4</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,81 +892,81 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>3248</v>
+        <v>1945</v>
       </c>
       <c r="O2">
-        <v>4515</v>
+        <v>2510.1999999999998</v>
       </c>
       <c r="P2">
-        <v>598</v>
+        <v>1332.3</v>
       </c>
       <c r="Q2">
-        <v>-242</v>
+        <v>-139.6</v>
       </c>
       <c r="R2">
-        <v>40512</v>
+        <v>36950</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>9949</v>
+        <v>3456</v>
       </c>
       <c r="U2">
-        <v>1768</v>
+        <v>185.9</v>
       </c>
       <c r="V2">
-        <v>435</v>
+        <v>51.5</v>
       </c>
       <c r="W2">
-        <v>-129</v>
+        <v>-32.4</v>
       </c>
       <c r="X2">
-        <v>-196</v>
+        <v>-67.8</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-350</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>457</v>
+        <v>97.4</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40602</v>
+        <v>37042</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>523</v>
+        <v>162.69999999999999</v>
       </c>
       <c r="D3">
-        <v>5079</v>
+        <v>2483.3000000000002</v>
       </c>
       <c r="E3">
-        <v>2985</v>
+        <v>1621.4</v>
       </c>
       <c r="F3">
-        <v>2327</v>
+        <v>936.5</v>
       </c>
       <c r="G3">
-        <v>10785</v>
+        <v>3625.3</v>
       </c>
       <c r="H3">
-        <v>14478</v>
+        <v>5819.6</v>
       </c>
       <c r="I3">
-        <v>1147</v>
+        <v>432</v>
       </c>
       <c r="J3">
-        <v>276</v>
+        <v>435.9</v>
       </c>
       <c r="K3">
-        <v>139</v>
+        <v>855.3</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -855,247 +975,247 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>3342</v>
+        <v>1786.7</v>
       </c>
       <c r="O3">
-        <v>4576</v>
+        <v>2324.8000000000002</v>
       </c>
       <c r="P3">
-        <v>613</v>
+        <v>1296.5999999999999</v>
       </c>
       <c r="Q3">
-        <v>364</v>
+        <v>118.1</v>
       </c>
       <c r="R3">
-        <v>40602</v>
+        <v>37042</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>22700</v>
       </c>
       <c r="T3">
-        <v>9902</v>
+        <v>3494.8</v>
       </c>
       <c r="U3">
-        <v>2132</v>
+        <v>304</v>
       </c>
       <c r="V3">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="W3">
-        <v>-148</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>-542</v>
+        <v>-142.9</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>682</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>523</v>
+        <v>162.69999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40694</v>
+        <v>37134</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>594</v>
+        <v>199.2</v>
       </c>
       <c r="D4">
-        <v>5766</v>
+        <v>2613.6999999999998</v>
       </c>
       <c r="E4">
-        <v>3138</v>
+        <v>1784.1</v>
       </c>
       <c r="F4">
-        <v>2554</v>
+        <v>1028.9000000000001</v>
       </c>
       <c r="G4">
-        <v>11297</v>
+        <v>3981</v>
       </c>
       <c r="H4">
-        <v>14998</v>
+        <v>6278.1</v>
       </c>
       <c r="I4">
-        <v>1469</v>
+        <v>445</v>
       </c>
       <c r="J4">
-        <v>276</v>
+        <v>638</v>
       </c>
       <c r="K4">
-        <v>187</v>
+        <v>550</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>-305.3</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>-1.3</v>
       </c>
       <c r="N4">
-        <v>3958</v>
+        <v>1854</v>
       </c>
       <c r="O4">
-        <v>5155</v>
+        <v>2596.6</v>
       </c>
       <c r="P4">
-        <v>663</v>
+        <v>1243.5999999999999</v>
       </c>
       <c r="Q4">
-        <v>-177</v>
+        <v>60.9</v>
       </c>
       <c r="R4">
-        <v>40694</v>
+        <v>37134</v>
       </c>
       <c r="S4">
-        <v>38000</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>9843</v>
+        <v>3681.5</v>
       </c>
       <c r="U4">
-        <v>1955</v>
+        <v>364.9</v>
       </c>
       <c r="V4">
-        <v>842</v>
+        <v>235.4</v>
       </c>
       <c r="W4">
-        <v>-147</v>
+        <v>-32.200000000000003</v>
       </c>
       <c r="X4">
-        <v>-634</v>
+        <v>-90.1</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-255</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>594</v>
+        <v>199.2</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40786</v>
+        <v>37225</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>645</v>
+        <v>129.30000000000001</v>
       </c>
       <c r="D5">
-        <v>5893</v>
+        <v>2336.8000000000002</v>
       </c>
       <c r="E5">
-        <v>3279</v>
+        <v>1659.9</v>
       </c>
       <c r="F5">
-        <v>2618</v>
+        <v>895.4</v>
       </c>
       <c r="G5">
-        <v>11039</v>
+        <v>3898.9</v>
       </c>
       <c r="H5">
-        <v>14803</v>
+        <v>6192.7</v>
       </c>
       <c r="I5">
-        <v>1421</v>
+        <v>379.2</v>
       </c>
       <c r="J5">
-        <v>238</v>
+        <v>624</v>
       </c>
       <c r="K5">
-        <v>164</v>
+        <v>543.6</v>
       </c>
       <c r="L5">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>-132</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>3760</v>
+        <v>1677.3</v>
       </c>
       <c r="O5">
-        <v>4904</v>
+        <v>2420.6999999999998</v>
       </c>
       <c r="P5">
-        <v>518</v>
+        <v>1223</v>
       </c>
       <c r="Q5">
-        <v>-347</v>
+        <v>94.9</v>
       </c>
       <c r="R5">
-        <v>40786</v>
+        <v>37225</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>9899</v>
+        <v>3772</v>
       </c>
       <c r="U5">
-        <v>1608</v>
+        <v>459.8</v>
       </c>
       <c r="V5">
-        <v>87</v>
+        <v>211.9</v>
       </c>
       <c r="W5">
-        <v>-145</v>
+        <v>-32.200000000000003</v>
       </c>
       <c r="X5">
-        <v>-744</v>
+        <v>-73.900000000000006</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>484</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>645</v>
+        <v>129.30000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40877</v>
+        <v>37315</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>469</v>
+        <v>126.4</v>
       </c>
       <c r="D6">
-        <v>5546</v>
+        <v>2260.3000000000002</v>
       </c>
       <c r="E6">
-        <v>3103</v>
+        <v>1814.3</v>
       </c>
       <c r="F6">
-        <v>2376</v>
+        <v>883.5</v>
       </c>
       <c r="G6">
-        <v>10725</v>
+        <v>3950.7</v>
       </c>
       <c r="H6">
-        <v>14565</v>
+        <v>6245</v>
       </c>
       <c r="I6">
-        <v>1411</v>
+        <v>372.9</v>
       </c>
       <c r="J6">
-        <v>234</v>
+        <v>615.20000000000005</v>
       </c>
       <c r="K6">
-        <v>123</v>
+        <v>477.8</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,81 +1224,81 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>3563</v>
+        <v>1634.1</v>
       </c>
       <c r="O6">
-        <v>4722</v>
+        <v>2376.8000000000002</v>
       </c>
       <c r="P6">
-        <v>471</v>
+        <v>1148</v>
       </c>
       <c r="Q6">
-        <v>321</v>
+        <v>-110.2</v>
       </c>
       <c r="R6">
-        <v>40877</v>
+        <v>37315</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>9843</v>
+        <v>3868.2</v>
       </c>
       <c r="U6">
-        <v>1929</v>
+        <v>349.6</v>
       </c>
       <c r="V6">
-        <v>510</v>
+        <v>56.8</v>
       </c>
       <c r="W6">
-        <v>-144</v>
+        <v>-32.200000000000003</v>
       </c>
       <c r="X6">
-        <v>-710</v>
+        <v>-85.3</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>651</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>469</v>
+        <v>126.3</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40968</v>
+        <v>37407</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>560</v>
+        <v>208.4</v>
       </c>
       <c r="D7">
-        <v>5656</v>
+        <v>2682.2</v>
       </c>
       <c r="E7">
-        <v>3296</v>
+        <v>1804.1</v>
       </c>
       <c r="F7">
-        <v>2485</v>
+        <v>1080.5</v>
       </c>
       <c r="G7">
-        <v>10932</v>
+        <v>4154.7</v>
       </c>
       <c r="H7">
-        <v>14794</v>
+        <v>6440</v>
       </c>
       <c r="I7">
-        <v>1298</v>
+        <v>504.4</v>
       </c>
       <c r="J7">
-        <v>229</v>
+        <v>625.9</v>
       </c>
       <c r="K7">
-        <v>91</v>
+        <v>425.2</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1187,247 +1307,247 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>3410</v>
+        <v>1833.2</v>
       </c>
       <c r="O7">
-        <v>4618</v>
+        <v>2600.6999999999998</v>
       </c>
       <c r="P7">
-        <v>369</v>
+        <v>1106.4000000000001</v>
       </c>
       <c r="Q7">
-        <v>92</v>
+        <v>225.9</v>
       </c>
       <c r="R7">
-        <v>40968</v>
+        <v>37407</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>22700</v>
       </c>
       <c r="T7">
-        <v>10176</v>
+        <v>3839.3</v>
       </c>
       <c r="U7">
-        <v>2021</v>
+        <v>575.5</v>
       </c>
       <c r="V7">
-        <v>328</v>
+        <v>577.4</v>
       </c>
       <c r="W7">
-        <v>-165</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>-416</v>
+        <v>-228.9</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>560</v>
+        <v>208.4</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41060</v>
+        <v>37499</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>549</v>
+        <v>-48.9</v>
       </c>
       <c r="D8">
-        <v>6236</v>
+        <v>2796.3</v>
       </c>
       <c r="E8">
-        <v>3132</v>
+        <v>2028</v>
       </c>
       <c r="F8">
-        <v>2669</v>
+        <v>1157.0999999999999</v>
       </c>
       <c r="G8">
-        <v>11845</v>
+        <v>4304.3</v>
       </c>
       <c r="H8">
-        <v>15465</v>
+        <v>6355.9</v>
       </c>
       <c r="I8">
-        <v>1549</v>
+        <v>486.6</v>
       </c>
       <c r="J8">
-        <v>228</v>
+        <v>736.3</v>
       </c>
       <c r="K8">
-        <v>108</v>
+        <v>217.4</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>-207.8</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>-51.4</v>
       </c>
       <c r="N8">
-        <v>3882</v>
+        <v>1786.6</v>
       </c>
       <c r="O8">
-        <v>5084</v>
+        <v>2683.1</v>
       </c>
       <c r="P8">
-        <v>385</v>
+        <v>959.3</v>
       </c>
       <c r="Q8">
-        <v>296</v>
+        <v>-145.5</v>
       </c>
       <c r="R8">
-        <v>41060</v>
+        <v>37499</v>
       </c>
       <c r="S8">
-        <v>44000</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>10381</v>
+        <v>3672.8</v>
       </c>
       <c r="U8">
-        <v>2317</v>
+        <v>430</v>
       </c>
       <c r="V8">
-        <v>974</v>
+        <v>174.1</v>
       </c>
       <c r="W8">
-        <v>-165</v>
+        <v>-31.9</v>
       </c>
       <c r="X8">
-        <v>-248</v>
+        <v>-249.2</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-268</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>549</v>
+        <v>-48.9</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41152</v>
+        <v>37590</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>567</v>
+        <v>152</v>
       </c>
       <c r="D9">
-        <v>6474</v>
+        <v>2514.6999999999998</v>
       </c>
       <c r="E9">
-        <v>3431</v>
+        <v>1890.7</v>
       </c>
       <c r="F9">
-        <v>2828</v>
+        <v>1010.1</v>
       </c>
       <c r="G9">
-        <v>11136</v>
+        <v>4212.3</v>
       </c>
       <c r="H9">
-        <v>15114</v>
+        <v>6263.4</v>
       </c>
       <c r="I9">
-        <v>1551</v>
+        <v>469.5</v>
       </c>
       <c r="J9">
-        <v>226</v>
+        <v>730.1</v>
       </c>
       <c r="K9">
-        <v>129</v>
+        <v>261.7</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>-42</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>3776</v>
+        <v>1596.7</v>
       </c>
       <c r="O9">
-        <v>5067</v>
+        <v>2489.6</v>
       </c>
       <c r="P9">
-        <v>364</v>
+        <v>997.3</v>
       </c>
       <c r="Q9">
-        <v>-152</v>
+        <v>125.8</v>
       </c>
       <c r="R9">
-        <v>41152</v>
+        <v>37590</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>10047</v>
+        <v>3773.8</v>
       </c>
       <c r="U9">
-        <v>2165</v>
+        <v>555.79999999999995</v>
       </c>
       <c r="V9">
-        <v>535</v>
+        <v>225.9</v>
       </c>
       <c r="W9">
-        <v>-165</v>
+        <v>-31.9</v>
       </c>
       <c r="X9">
-        <v>-907</v>
+        <v>-26.9</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>333</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>567</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41243</v>
+        <v>37680</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>124.7</v>
       </c>
       <c r="D10">
-        <v>5955</v>
+        <v>2400.9</v>
       </c>
       <c r="E10">
-        <v>3188</v>
+        <v>1949.4</v>
       </c>
       <c r="F10">
-        <v>2530</v>
+        <v>976</v>
       </c>
       <c r="G10">
-        <v>11435</v>
+        <v>4347</v>
       </c>
       <c r="H10">
-        <v>15171</v>
+        <v>6401</v>
       </c>
       <c r="I10">
-        <v>1519</v>
+        <v>467.5</v>
       </c>
       <c r="J10">
-        <v>170</v>
+        <v>542.79999999999995</v>
       </c>
       <c r="K10">
-        <v>100</v>
+        <v>216.6</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,37 +1556,37 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>3799</v>
+        <v>1855.2</v>
       </c>
       <c r="O10">
-        <v>5157</v>
+        <v>2565.5</v>
       </c>
       <c r="P10">
-        <v>328</v>
+        <v>965</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>-112.6</v>
       </c>
       <c r="R10">
-        <v>41243</v>
+        <v>37680</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>10014</v>
+        <v>3835.5</v>
       </c>
       <c r="U10">
-        <v>2291</v>
+        <v>443.2</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>30.5</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>-37</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>-107.2</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1475,42 +1595,42 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>384</v>
+        <v>124.7</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41333</v>
+        <v>37772</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>866</v>
+        <v>246.2</v>
       </c>
       <c r="D11">
-        <v>6187</v>
+        <v>2985.1</v>
       </c>
       <c r="E11">
-        <v>3232</v>
+        <v>2083.9</v>
       </c>
       <c r="F11">
-        <v>2736</v>
+        <v>1240.2</v>
       </c>
       <c r="G11">
-        <v>11789</v>
+        <v>4787.1000000000004</v>
       </c>
       <c r="H11">
-        <v>15615</v>
+        <v>6821.1</v>
       </c>
       <c r="I11">
-        <v>1241</v>
+        <v>572.70000000000005</v>
       </c>
       <c r="J11">
-        <v>161</v>
+        <v>551.6</v>
       </c>
       <c r="K11">
-        <v>103</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1519,247 +1639,247 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>3500</v>
+        <v>2020.6</v>
       </c>
       <c r="O11">
-        <v>4948</v>
+        <v>2830.1</v>
       </c>
       <c r="P11">
-        <v>321</v>
+        <v>832.7</v>
       </c>
       <c r="Q11">
-        <v>266</v>
+        <v>190.8</v>
       </c>
       <c r="R11">
-        <v>41333</v>
+        <v>37772</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>23300</v>
       </c>
       <c r="T11">
-        <v>10667</v>
+        <v>3991</v>
       </c>
       <c r="U11">
-        <v>2557</v>
+        <v>634</v>
       </c>
       <c r="V11">
-        <v>447</v>
+        <v>491.5</v>
       </c>
       <c r="W11">
-        <v>-188</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>-352</v>
+        <v>-223.2</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-255</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>866</v>
+        <v>246.2</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41425</v>
+        <v>37864</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>655</v>
+        <v>261.2</v>
       </c>
       <c r="D12">
-        <v>6697</v>
+        <v>3024.9</v>
       </c>
       <c r="E12">
-        <v>3117</v>
+        <v>2085.5</v>
       </c>
       <c r="F12">
-        <v>2940</v>
+        <v>1301.5</v>
       </c>
       <c r="G12">
-        <v>13630</v>
+        <v>5048.2</v>
       </c>
       <c r="H12">
-        <v>17545</v>
+        <v>7018.6</v>
       </c>
       <c r="I12">
-        <v>1614</v>
+        <v>520.1</v>
       </c>
       <c r="J12">
-        <v>1210</v>
+        <v>532.29999999999995</v>
       </c>
       <c r="K12">
-        <v>153</v>
+        <v>237.6</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="N12">
-        <v>3962</v>
+        <v>2034.7</v>
       </c>
       <c r="O12">
-        <v>6464</v>
+        <v>2801.2</v>
       </c>
       <c r="P12">
-        <v>1420</v>
+        <v>975.5</v>
       </c>
       <c r="Q12">
-        <v>843</v>
+        <v>363.8</v>
       </c>
       <c r="R12">
-        <v>41425</v>
+        <v>37864</v>
       </c>
       <c r="S12">
-        <v>48000</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>11081</v>
+        <v>4217.3999999999996</v>
       </c>
       <c r="U12">
-        <v>3337</v>
+        <v>997.8</v>
       </c>
       <c r="V12">
-        <v>1276</v>
+        <v>350</v>
       </c>
       <c r="W12">
-        <v>-188</v>
+        <v>-36.9</v>
       </c>
       <c r="X12">
-        <v>738</v>
+        <v>50.8</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-1082</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>655</v>
+        <v>261.2</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41517</v>
+        <v>37955</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>779</v>
+        <v>179.1</v>
       </c>
       <c r="D13">
-        <v>6971</v>
+        <v>2837.1</v>
       </c>
       <c r="E13">
-        <v>3207</v>
+        <v>2010.4</v>
       </c>
       <c r="F13">
-        <v>3132</v>
+        <v>1199.5999999999999</v>
       </c>
       <c r="G13">
-        <v>13618</v>
+        <v>5020.8</v>
       </c>
       <c r="H13">
-        <v>17674</v>
+        <v>7376.5</v>
       </c>
       <c r="I13">
-        <v>1559</v>
+        <v>533.1</v>
       </c>
       <c r="J13">
-        <v>1207</v>
+        <v>649.6</v>
       </c>
       <c r="K13">
-        <v>111</v>
+        <v>142.4</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>3863</v>
+        <v>1996</v>
       </c>
       <c r="O13">
-        <v>6392</v>
+        <v>3008.9</v>
       </c>
       <c r="P13">
-        <v>1375</v>
+        <v>998.1</v>
       </c>
       <c r="Q13">
-        <v>-676</v>
+        <v>-28.9</v>
       </c>
       <c r="R13">
-        <v>41517</v>
+        <v>37955</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>11282</v>
+        <v>4367.6000000000004</v>
       </c>
       <c r="U13">
-        <v>2936</v>
+        <v>968.9</v>
       </c>
       <c r="V13">
-        <v>618</v>
+        <v>423</v>
       </c>
       <c r="W13">
-        <v>-188</v>
+        <v>-36.799999999999997</v>
       </c>
       <c r="X13">
-        <v>-592</v>
+        <v>-110.9</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-349</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>779</v>
+        <v>179.1</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41608</v>
+        <v>38046</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>534</v>
+        <v>200.3</v>
       </c>
       <c r="D14">
-        <v>6431</v>
+        <v>2904</v>
       </c>
       <c r="E14">
-        <v>3208</v>
+        <v>2033.9</v>
       </c>
       <c r="F14">
-        <v>2826</v>
+        <v>1221.9000000000001</v>
       </c>
       <c r="G14">
-        <v>13607</v>
+        <v>5199.6000000000004</v>
       </c>
       <c r="H14">
-        <v>17820</v>
+        <v>7604.3</v>
       </c>
       <c r="I14">
-        <v>1612</v>
+        <v>567</v>
       </c>
       <c r="J14">
-        <v>1201</v>
+        <v>694.3</v>
       </c>
       <c r="K14">
-        <v>180</v>
+        <v>165.2</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,81 +1888,81 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>3851</v>
+        <v>1944.6</v>
       </c>
       <c r="O14">
-        <v>6476</v>
+        <v>3040.8</v>
       </c>
       <c r="P14">
-        <v>1388</v>
+        <v>865.7</v>
       </c>
       <c r="Q14">
-        <v>-575</v>
+        <v>-54.2</v>
       </c>
       <c r="R14">
-        <v>41608</v>
+        <v>38046</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>11344</v>
+        <v>4563.5</v>
       </c>
       <c r="U14">
-        <v>2086</v>
+        <v>914.7</v>
       </c>
       <c r="V14">
-        <v>330</v>
+        <v>202.4</v>
       </c>
       <c r="W14">
-        <v>-187</v>
+        <v>-52.6</v>
       </c>
       <c r="X14">
-        <v>-405</v>
+        <v>-170</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-291</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>534</v>
+        <v>200.3</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41698</v>
+        <v>38138</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>682</v>
+        <v>305</v>
       </c>
       <c r="D15">
-        <v>6972</v>
+        <v>3487.1</v>
       </c>
       <c r="E15">
-        <v>3355</v>
+        <v>2120.1999999999998</v>
       </c>
       <c r="F15">
-        <v>3103</v>
+        <v>1528.7</v>
       </c>
       <c r="G15">
-        <v>13410</v>
+        <v>5528.6</v>
       </c>
       <c r="H15">
-        <v>17803</v>
+        <v>7908.7</v>
       </c>
       <c r="I15">
-        <v>1480</v>
+        <v>780.4</v>
       </c>
       <c r="J15">
-        <v>1201</v>
+        <v>682.4</v>
       </c>
       <c r="K15">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1851,247 +1971,247 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>3954</v>
+        <v>2030.5</v>
       </c>
       <c r="O15">
-        <v>6670</v>
+        <v>3126.7</v>
       </c>
       <c r="P15">
-        <v>1327</v>
+        <v>835</v>
       </c>
       <c r="Q15">
-        <v>-222</v>
+        <v>-86.7</v>
       </c>
       <c r="R15">
-        <v>41698</v>
+        <v>38138</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>24667</v>
       </c>
       <c r="T15">
-        <v>11133</v>
+        <v>4782</v>
       </c>
       <c r="U15">
-        <v>1864</v>
+        <v>828</v>
       </c>
       <c r="V15">
-        <v>737</v>
+        <v>543.1</v>
       </c>
       <c r="W15">
-        <v>-212</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>-920</v>
+        <v>-168.4</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>79</v>
+        <v>-400.8</v>
       </c>
       <c r="AA15">
-        <v>682</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41790</v>
+        <v>38230</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>698</v>
+        <v>326.8</v>
       </c>
       <c r="D16">
-        <v>7425</v>
+        <v>3561.8</v>
       </c>
       <c r="E16">
-        <v>3434</v>
+        <v>2175.6999999999998</v>
       </c>
       <c r="F16">
-        <v>3385</v>
+        <v>1585.8</v>
       </c>
       <c r="G16">
-        <v>13696</v>
+        <v>5621.1</v>
       </c>
       <c r="H16">
-        <v>18594</v>
+        <v>8052.9</v>
       </c>
       <c r="I16">
-        <v>1870</v>
+        <v>688.8</v>
       </c>
       <c r="J16">
-        <v>1199</v>
+        <v>692.4</v>
       </c>
       <c r="K16">
-        <v>227</v>
+        <v>97.8</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>-52.7</v>
       </c>
       <c r="N16">
-        <v>5027</v>
+        <v>1907.9</v>
       </c>
       <c r="O16">
-        <v>7770</v>
+        <v>3030.5</v>
       </c>
       <c r="P16">
-        <v>1507</v>
+        <v>796.3</v>
       </c>
       <c r="Q16">
-        <v>356</v>
+        <v>104.1</v>
       </c>
       <c r="R16">
-        <v>41790</v>
+        <v>38230</v>
       </c>
       <c r="S16">
-        <v>56500</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>10824</v>
+        <v>5022.3999999999996</v>
       </c>
       <c r="U16">
-        <v>2220</v>
+        <v>932.1</v>
       </c>
       <c r="V16">
-        <v>1328</v>
+        <v>368.4</v>
       </c>
       <c r="W16">
-        <v>-212</v>
+        <v>-52.6</v>
       </c>
       <c r="X16">
-        <v>-997</v>
+        <v>-185.5</v>
       </c>
       <c r="Y16">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>233</v>
+        <v>34.6</v>
       </c>
       <c r="AA16">
-        <v>698</v>
+        <v>326.8</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41882</v>
+        <v>38321</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>962</v>
+        <v>261.89999999999998</v>
       </c>
       <c r="D17">
-        <v>7982</v>
+        <v>3148.3</v>
       </c>
       <c r="E17">
-        <v>3587</v>
+        <v>2125.8000000000002</v>
       </c>
       <c r="F17">
-        <v>3721</v>
+        <v>1388.1</v>
       </c>
       <c r="G17">
-        <v>13540</v>
+        <v>6050.7</v>
       </c>
       <c r="H17">
-        <v>18521</v>
+        <v>8558.2999999999993</v>
       </c>
       <c r="I17">
-        <v>1970</v>
+        <v>650.70000000000005</v>
       </c>
       <c r="J17">
-        <v>1195</v>
+        <v>699</v>
       </c>
       <c r="K17">
-        <v>146</v>
+        <v>144.4</v>
       </c>
       <c r="L17">
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>4813</v>
+        <v>2003.2</v>
       </c>
       <c r="O17">
-        <v>7416</v>
+        <v>3215.7</v>
       </c>
       <c r="P17">
-        <v>1347</v>
+        <v>849.9</v>
       </c>
       <c r="Q17">
-        <v>83</v>
+        <v>249.7</v>
       </c>
       <c r="R17">
-        <v>41882</v>
+        <v>38321</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>11105</v>
+        <v>5342.6</v>
       </c>
       <c r="U17">
-        <v>2303</v>
+        <v>1181.8</v>
       </c>
       <c r="V17">
-        <v>683</v>
+        <v>387.1</v>
       </c>
       <c r="W17">
-        <v>-209</v>
+        <v>-52.6</v>
       </c>
       <c r="X17">
-        <v>-882</v>
+        <v>27.4</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>540</v>
+        <v>-110.8</v>
       </c>
       <c r="AA17">
-        <v>962</v>
+        <v>261.89999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>41973</v>
+        <v>38411</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>655</v>
+        <v>273.39999999999998</v>
       </c>
       <c r="D18">
-        <v>7380</v>
+        <v>3308.2</v>
       </c>
       <c r="E18">
-        <v>3457</v>
+        <v>2304.9</v>
       </c>
       <c r="F18">
-        <v>3327</v>
+        <v>1458.8</v>
       </c>
       <c r="G18">
-        <v>14033</v>
+        <v>6198.7</v>
       </c>
       <c r="H18">
-        <v>19167</v>
+        <v>8652.1</v>
       </c>
       <c r="I18">
-        <v>2074</v>
+        <v>684.2</v>
       </c>
       <c r="J18">
-        <v>1084</v>
+        <v>691.4</v>
       </c>
       <c r="K18">
-        <v>93</v>
+        <v>101.3</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,81 +2220,81 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>4937</v>
+        <v>2066</v>
       </c>
       <c r="O18">
-        <v>7467</v>
+        <v>3224.7</v>
       </c>
       <c r="P18">
-        <v>1287</v>
+        <v>799.1</v>
       </c>
       <c r="Q18">
-        <v>-30</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="R18">
-        <v>41973</v>
+        <v>38411</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18">
-        <v>11700</v>
+        <v>5427.4</v>
       </c>
       <c r="U18">
-        <v>2273</v>
+        <v>1222.5</v>
       </c>
       <c r="V18">
-        <v>864</v>
+        <v>325.60000000000002</v>
       </c>
       <c r="W18">
-        <v>-207</v>
+        <v>-66</v>
       </c>
       <c r="X18">
-        <v>-422</v>
+        <v>-266.3</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-221</v>
+        <v>58.3</v>
       </c>
       <c r="AA18">
-        <v>655</v>
+        <v>273.39999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42063</v>
+        <v>38503</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>791</v>
+        <v>349.5</v>
       </c>
       <c r="D19">
-        <v>7460</v>
+        <v>3721.4</v>
       </c>
       <c r="E19">
-        <v>3294</v>
+        <v>2262.1</v>
       </c>
       <c r="F19">
-        <v>3426</v>
+        <v>1682.7</v>
       </c>
       <c r="G19">
-        <v>15207</v>
+        <v>6351.1</v>
       </c>
       <c r="H19">
-        <v>20541</v>
+        <v>8793.6</v>
       </c>
       <c r="I19">
-        <v>1821</v>
+        <v>775</v>
       </c>
       <c r="J19">
-        <v>1082</v>
+        <v>687.3</v>
       </c>
       <c r="K19">
-        <v>61</v>
+        <v>69.8</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2183,247 +2303,247 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>5586</v>
+        <v>1999.2</v>
       </c>
       <c r="O19">
-        <v>8173</v>
+        <v>3149.1</v>
       </c>
       <c r="P19">
-        <v>1251</v>
+        <v>763.3</v>
       </c>
       <c r="Q19">
-        <v>742</v>
+        <v>165.6</v>
       </c>
       <c r="R19">
-        <v>42063</v>
+        <v>38503</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>26000</v>
       </c>
       <c r="T19">
-        <v>12368</v>
+        <v>5644.5</v>
       </c>
       <c r="U19">
-        <v>3015</v>
+        <v>1388.1</v>
       </c>
       <c r="V19">
-        <v>1791</v>
+        <v>489.6</v>
       </c>
       <c r="W19">
-        <v>-242</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>-791</v>
+        <v>-232.6</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>269</v>
+        <v>-17.399999999999999</v>
       </c>
       <c r="AA19">
-        <v>791</v>
+        <v>349.5</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42155</v>
+        <v>38595</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>865</v>
+        <v>432.3</v>
       </c>
       <c r="D20">
-        <v>7779</v>
+        <v>3862</v>
       </c>
       <c r="E20">
-        <v>3358</v>
+        <v>2390.6</v>
       </c>
       <c r="F20">
-        <v>3593</v>
+        <v>1748.1</v>
       </c>
       <c r="G20">
-        <v>15587</v>
+        <v>6666.3</v>
       </c>
       <c r="H20">
-        <v>21597</v>
+        <v>9115.7000000000007</v>
       </c>
       <c r="I20">
-        <v>2131</v>
+        <v>768.5</v>
       </c>
       <c r="J20">
-        <v>1079</v>
+        <v>428.4</v>
       </c>
       <c r="K20">
-        <v>74</v>
+        <v>64.3</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>-1.6</v>
       </c>
       <c r="N20">
-        <v>6332</v>
+        <v>2233.5</v>
       </c>
       <c r="O20">
-        <v>8890</v>
+        <v>3151.6</v>
       </c>
       <c r="P20">
-        <v>1260</v>
+        <v>748.7</v>
       </c>
       <c r="Q20">
-        <v>837</v>
+        <v>200.8</v>
       </c>
       <c r="R20">
-        <v>42155</v>
+        <v>38595</v>
       </c>
       <c r="S20">
-        <v>62600</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>12707</v>
+        <v>5964.1</v>
       </c>
       <c r="U20">
-        <v>3852</v>
+        <v>1588.9</v>
       </c>
       <c r="V20">
-        <v>1342</v>
+        <v>261.7</v>
       </c>
       <c r="W20">
-        <v>-241</v>
+        <v>-65.3</v>
       </c>
       <c r="X20">
-        <v>-695</v>
+        <v>-138.19999999999999</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>347</v>
+        <v>134</v>
       </c>
       <c r="AA20">
-        <v>865</v>
+        <v>432.3</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42247</v>
+        <v>38686</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>1179</v>
+        <v>301.10000000000002</v>
       </c>
       <c r="D21">
-        <v>8414</v>
+        <v>3474.7</v>
       </c>
       <c r="E21">
-        <v>3288</v>
+        <v>2166.1999999999998</v>
       </c>
       <c r="F21">
-        <v>3995</v>
+        <v>1511.4</v>
       </c>
       <c r="G21">
-        <v>15238</v>
+        <v>6696.5</v>
       </c>
       <c r="H21">
-        <v>20766</v>
+        <v>9144.1</v>
       </c>
       <c r="I21">
-        <v>1933</v>
+        <v>797.1</v>
       </c>
       <c r="J21">
-        <v>1079</v>
+        <v>408.3</v>
       </c>
       <c r="K21">
-        <v>23</v>
+        <v>79.2</v>
       </c>
       <c r="L21">
-        <v>-48</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>5276</v>
+        <v>2161.1</v>
       </c>
       <c r="O21">
-        <v>7872</v>
+        <v>3062.3</v>
       </c>
       <c r="P21">
-        <v>1208</v>
+        <v>742</v>
       </c>
       <c r="Q21">
-        <v>-606</v>
+        <v>-454.4</v>
       </c>
       <c r="R21">
-        <v>42247</v>
+        <v>38686</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>12894</v>
+        <v>6081.8</v>
       </c>
       <c r="U21">
-        <v>3246</v>
+        <v>1134.5</v>
       </c>
       <c r="V21">
-        <v>491</v>
+        <v>476.5</v>
       </c>
       <c r="W21">
-        <v>-240</v>
+        <v>-65.099999999999994</v>
       </c>
       <c r="X21">
-        <v>-674</v>
+        <v>-214</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>-17</v>
+        <v>-613.4</v>
       </c>
       <c r="AA21">
-        <v>1179</v>
+        <v>301.10000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42338</v>
+        <v>38776</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>785</v>
+        <v>325.8</v>
       </c>
       <c r="D22">
-        <v>7686</v>
+        <v>3612.8</v>
       </c>
       <c r="E22">
-        <v>3437</v>
+        <v>2351.6</v>
       </c>
       <c r="F22">
-        <v>3501</v>
+        <v>1574.1</v>
       </c>
       <c r="G22">
-        <v>16755</v>
+        <v>7044.7</v>
       </c>
       <c r="H22">
-        <v>22583</v>
+        <v>9518.2000000000007</v>
       </c>
       <c r="I22">
-        <v>1915</v>
+        <v>785.8</v>
       </c>
       <c r="J22">
-        <v>2067</v>
+        <v>411.3</v>
       </c>
       <c r="K22">
-        <v>99</v>
+        <v>79.3</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,81 +2552,81 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>5511</v>
+        <v>2304.1999999999998</v>
       </c>
       <c r="O22">
-        <v>9178</v>
+        <v>3256.3</v>
       </c>
       <c r="P22">
-        <v>2176</v>
+        <v>745.3</v>
       </c>
       <c r="Q22">
-        <v>605</v>
+        <v>337.6</v>
       </c>
       <c r="R22">
-        <v>42338</v>
+        <v>38776</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="T22">
-        <v>13405</v>
+        <v>6261.9</v>
       </c>
       <c r="U22">
-        <v>3851</v>
+        <v>1472.1</v>
       </c>
       <c r="V22">
-        <v>545</v>
+        <v>214.9</v>
       </c>
       <c r="W22">
-        <v>-239</v>
+        <v>-80.400000000000006</v>
       </c>
       <c r="X22">
-        <v>392</v>
+        <v>-168.8</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-74</v>
+        <v>378.6</v>
       </c>
       <c r="AA22">
-        <v>785</v>
+        <v>325.8</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42429</v>
+        <v>38868</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>950</v>
+        <v>332.8</v>
       </c>
       <c r="D23">
-        <v>8032</v>
+        <v>4005.4</v>
       </c>
       <c r="E23">
-        <v>3368</v>
+        <v>2382.9</v>
       </c>
       <c r="F23">
-        <v>3689</v>
+        <v>1753.4</v>
       </c>
       <c r="G23">
-        <v>15256</v>
+        <v>7346</v>
       </c>
       <c r="H23">
-        <v>20987</v>
+        <v>9869.6</v>
       </c>
       <c r="I23">
-        <v>1714</v>
+        <v>952.2</v>
       </c>
       <c r="J23">
-        <v>2048</v>
+        <v>410.7</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>43.4</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -2515,247 +2635,247 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>4980</v>
+        <v>2612.4</v>
       </c>
       <c r="O23">
-        <v>8687</v>
+        <v>3584.1</v>
       </c>
       <c r="P23">
-        <v>2109</v>
+        <v>709.4</v>
       </c>
       <c r="Q23">
-        <v>-807</v>
+        <v>-517.9</v>
       </c>
       <c r="R23">
-        <v>42429</v>
+        <v>38868</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>28000</v>
       </c>
       <c r="T23">
-        <v>12300</v>
+        <v>6285.5</v>
       </c>
       <c r="U23">
-        <v>3044</v>
+        <v>954.2</v>
       </c>
       <c r="V23">
-        <v>876</v>
+        <v>714.8</v>
       </c>
       <c r="W23">
-        <v>-273</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>-1763</v>
+        <v>-329.9</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>292</v>
+        <v>-809.1</v>
       </c>
       <c r="AA23">
-        <v>950</v>
+        <v>332.8</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42521</v>
+        <v>38960</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>846</v>
+        <v>377.2</v>
       </c>
       <c r="D24">
-        <v>8244</v>
+        <v>4194.1000000000004</v>
       </c>
       <c r="E24">
-        <v>3241</v>
+        <v>2569.1</v>
       </c>
       <c r="F24">
-        <v>3786</v>
+        <v>1849.2</v>
       </c>
       <c r="G24">
-        <v>15025</v>
+        <v>6999.1</v>
       </c>
       <c r="H24">
-        <v>21379</v>
+        <v>9570.5</v>
       </c>
       <c r="I24">
-        <v>2191</v>
+        <v>867.7</v>
       </c>
       <c r="J24">
-        <v>1993</v>
+        <v>380.4</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>61.3</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>-251.4</v>
       </c>
       <c r="N24">
-        <v>5358</v>
+        <v>2409.6999999999998</v>
       </c>
       <c r="O24">
-        <v>9121</v>
+        <v>3349.3</v>
       </c>
       <c r="P24">
-        <v>2083</v>
+        <v>472.2</v>
       </c>
       <c r="Q24">
-        <v>94</v>
+        <v>76.5</v>
       </c>
       <c r="R24">
-        <v>42521</v>
+        <v>38960</v>
       </c>
       <c r="S24">
-        <v>70700</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>12258</v>
+        <v>6221.2</v>
       </c>
       <c r="U24">
-        <v>3138</v>
+        <v>1030.7</v>
       </c>
       <c r="V24">
-        <v>1184</v>
+        <v>231.8</v>
       </c>
       <c r="W24">
-        <v>-270</v>
+        <v>-79.3</v>
       </c>
       <c r="X24">
-        <v>-626</v>
+        <v>-751.9</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-258</v>
+        <v>661.8</v>
       </c>
       <c r="AA24">
-        <v>846</v>
+        <v>377.2</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42613</v>
+        <v>39051</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>1249</v>
+        <v>325.60000000000002</v>
       </c>
       <c r="D25">
-        <v>9061</v>
+        <v>3821.7</v>
       </c>
       <c r="E25">
-        <v>3526</v>
+        <v>2387.6</v>
       </c>
       <c r="F25">
-        <v>4123</v>
+        <v>1657.1</v>
       </c>
       <c r="G25">
-        <v>14589</v>
+        <v>7209.6</v>
       </c>
       <c r="H25">
-        <v>21156</v>
+        <v>9822.2000000000007</v>
       </c>
       <c r="I25">
-        <v>2088</v>
+        <v>880.3</v>
       </c>
       <c r="J25">
-        <v>1993</v>
+        <v>383.5</v>
       </c>
       <c r="K25">
-        <v>22</v>
+        <v>59.2</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>5363</v>
+        <v>2285.1999999999998</v>
       </c>
       <c r="O25">
-        <v>8991</v>
+        <v>3283.8</v>
       </c>
       <c r="P25">
-        <v>2188</v>
+        <v>473.3</v>
       </c>
       <c r="Q25">
-        <v>-479</v>
+        <v>72.2</v>
       </c>
       <c r="R25">
-        <v>42613</v>
+        <v>39051</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>12165</v>
+        <v>6538.4</v>
       </c>
       <c r="U25">
-        <v>2659</v>
+        <v>1102.9000000000001</v>
       </c>
       <c r="V25">
-        <v>788</v>
+        <v>309.8</v>
       </c>
       <c r="W25">
-        <v>-269</v>
+        <v>-77.7</v>
       </c>
       <c r="X25">
-        <v>-1202</v>
+        <v>-51.8</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>243</v>
+        <v>-106.8</v>
       </c>
       <c r="AA25">
-        <v>1249</v>
+        <v>325.60000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42704</v>
+        <v>39141</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>842</v>
+        <v>350.8</v>
       </c>
       <c r="D26">
-        <v>8180</v>
+        <v>3926.9</v>
       </c>
       <c r="E26">
-        <v>3478</v>
+        <v>2532</v>
       </c>
       <c r="F26">
-        <v>3616</v>
+        <v>1735.2</v>
       </c>
       <c r="G26">
-        <v>16011</v>
+        <v>7640.1</v>
       </c>
       <c r="H26">
-        <v>22652</v>
+        <v>10218.6</v>
       </c>
       <c r="I26">
-        <v>2033</v>
+        <v>800.9</v>
       </c>
       <c r="J26">
-        <v>3473</v>
+        <v>419.4</v>
       </c>
       <c r="K26">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,81 +2884,81 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>5225</v>
+        <v>2312.6999999999998</v>
       </c>
       <c r="O26">
-        <v>10329</v>
+        <v>3370.3</v>
       </c>
       <c r="P26">
-        <v>3537</v>
+        <v>546</v>
       </c>
       <c r="Q26">
-        <v>1680</v>
+        <v>776.3</v>
       </c>
       <c r="R26">
-        <v>42704</v>
+        <v>39141</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26">
-        <v>12323</v>
+        <v>6848.3</v>
       </c>
       <c r="U26">
-        <v>4339</v>
+        <v>1879.2</v>
       </c>
       <c r="V26">
-        <v>982</v>
+        <v>373.2</v>
       </c>
       <c r="W26">
-        <v>-267</v>
+        <v>-93.2</v>
       </c>
       <c r="X26">
-        <v>436</v>
+        <v>9</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>546</v>
+        <v>421.5</v>
       </c>
       <c r="AA26">
-        <v>842</v>
+        <v>350.8</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42794</v>
+        <v>39233</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>1141</v>
+        <v>437.9</v>
       </c>
       <c r="D27">
-        <v>8432</v>
+        <v>4383.2</v>
       </c>
       <c r="E27">
-        <v>3752</v>
+        <v>2494.6999999999998</v>
       </c>
       <c r="F27">
-        <v>3750</v>
+        <v>1919</v>
       </c>
       <c r="G27">
-        <v>16205</v>
+        <v>8076.5</v>
       </c>
       <c r="H27">
-        <v>23152</v>
+        <v>10688.3</v>
       </c>
       <c r="I27">
-        <v>1938</v>
+        <v>1040.3</v>
       </c>
       <c r="J27">
-        <v>3472</v>
+        <v>409.9</v>
       </c>
       <c r="K27">
-        <v>23</v>
+        <v>100.8</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -2847,247 +2967,247 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>5271</v>
+        <v>2584</v>
       </c>
       <c r="O27">
-        <v>10430</v>
+        <v>3662.6</v>
       </c>
       <c r="P27">
-        <v>3501</v>
+        <v>541.20000000000005</v>
       </c>
       <c r="Q27">
-        <v>-318</v>
+        <v>-22.5</v>
       </c>
       <c r="R27">
-        <v>42794</v>
+        <v>39233</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>30200</v>
       </c>
       <c r="T27">
-        <v>12722</v>
+        <v>7025.7</v>
       </c>
       <c r="U27">
-        <v>4021</v>
+        <v>1856.7</v>
       </c>
       <c r="V27">
-        <v>1114</v>
+        <v>963.9</v>
       </c>
       <c r="W27">
-        <v>-298</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>-717</v>
+        <v>-316.8</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-480</v>
+        <v>-594.1</v>
       </c>
       <c r="AA27">
-        <v>1141</v>
+        <v>437.9</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42886</v>
+        <v>39325</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>1008</v>
+        <v>569.70000000000005</v>
       </c>
       <c r="D28">
-        <v>8677</v>
+        <v>4655.1000000000004</v>
       </c>
       <c r="E28">
-        <v>3677</v>
+        <v>2774.1</v>
       </c>
       <c r="F28">
-        <v>3823</v>
+        <v>2087</v>
       </c>
       <c r="G28">
-        <v>16061</v>
+        <v>8341.5</v>
       </c>
       <c r="H28">
-        <v>23259</v>
+        <v>11013.5</v>
       </c>
       <c r="I28">
-        <v>2048</v>
+        <v>971.5</v>
       </c>
       <c r="J28">
-        <v>3471</v>
+        <v>420.9</v>
       </c>
       <c r="K28">
-        <v>325</v>
+        <v>140.19999999999999</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>-26.4</v>
       </c>
       <c r="N28">
-        <v>5474</v>
+        <v>2615.4</v>
       </c>
       <c r="O28">
-        <v>10852</v>
+        <v>3658.6</v>
       </c>
       <c r="P28">
-        <v>3802</v>
+        <v>566.9</v>
       </c>
       <c r="Q28">
-        <v>-213</v>
+        <v>117.2</v>
       </c>
       <c r="R28">
-        <v>42886</v>
+        <v>39325</v>
       </c>
       <c r="S28">
-        <v>74400</v>
+        <v>0</v>
       </c>
       <c r="T28">
-        <v>12407</v>
+        <v>7354.9</v>
       </c>
       <c r="U28">
-        <v>3808</v>
+        <v>1973.9</v>
       </c>
       <c r="V28">
-        <v>962</v>
+        <v>319.5</v>
       </c>
       <c r="W28">
-        <v>-299</v>
+        <v>-92.8</v>
       </c>
       <c r="X28">
-        <v>-665</v>
+        <v>-287.60000000000002</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-191</v>
+        <v>181.5</v>
       </c>
       <c r="AA28">
-        <v>1008</v>
+        <v>569.70000000000005</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>42978</v>
+        <v>39416</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>950</v>
+        <v>359.4</v>
       </c>
       <c r="D29">
-        <v>9070</v>
+        <v>4339.5</v>
       </c>
       <c r="E29">
-        <v>3871</v>
+        <v>2617.1</v>
       </c>
       <c r="F29">
-        <v>3962</v>
+        <v>1921.1</v>
       </c>
       <c r="G29">
-        <v>16192</v>
+        <v>8687.4</v>
       </c>
       <c r="H29">
-        <v>23647</v>
+        <v>11454.6</v>
       </c>
       <c r="I29">
-        <v>2116</v>
+        <v>1053.5</v>
       </c>
       <c r="J29">
-        <v>3472</v>
+        <v>436.3</v>
       </c>
       <c r="K29">
-        <v>335</v>
+        <v>119.5</v>
       </c>
       <c r="L29">
         <v>0</v>
       </c>
       <c r="M29">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>6056</v>
+        <v>2788.9</v>
       </c>
       <c r="O29">
-        <v>11654</v>
+        <v>3962.1</v>
       </c>
       <c r="P29">
-        <v>3814</v>
+        <v>561.9</v>
       </c>
       <c r="Q29">
-        <v>-395</v>
+        <v>496.6</v>
       </c>
       <c r="R29">
-        <v>42978</v>
+        <v>39416</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>11993</v>
+        <v>7492.5</v>
       </c>
       <c r="U29">
-        <v>3413</v>
+        <v>2470.5</v>
       </c>
       <c r="V29">
-        <v>575</v>
+        <v>630.4</v>
       </c>
       <c r="W29">
-        <v>-300</v>
+        <v>-92.3</v>
       </c>
       <c r="X29">
-        <v>-998</v>
+        <v>-284</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>258</v>
+        <v>224.8</v>
       </c>
       <c r="AA29">
-        <v>950</v>
+        <v>359.4</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43069</v>
+        <v>39507</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>767</v>
+        <v>463.8</v>
       </c>
       <c r="D30">
-        <v>8554</v>
+        <v>4544.3999999999996</v>
       </c>
       <c r="E30">
-        <v>3613</v>
+        <v>2775.5</v>
       </c>
       <c r="F30">
-        <v>3678</v>
+        <v>2047.9</v>
       </c>
       <c r="G30">
-        <v>16582</v>
+        <v>8904.7000000000007</v>
       </c>
       <c r="H30">
-        <v>24055</v>
+        <v>11788.2</v>
       </c>
       <c r="I30">
-        <v>2141</v>
+        <v>1004.7</v>
       </c>
       <c r="J30">
-        <v>3472</v>
+        <v>446.7</v>
       </c>
       <c r="K30">
-        <v>1229</v>
+        <v>205.6</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,81 +3216,81 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>6750</v>
+        <v>2943.2</v>
       </c>
       <c r="O30">
-        <v>12297</v>
+        <v>4174.7</v>
       </c>
       <c r="P30">
-        <v>4711</v>
+        <v>658.6</v>
       </c>
       <c r="Q30">
-        <v>891</v>
+        <v>-228.1</v>
       </c>
       <c r="R30">
-        <v>43069</v>
+        <v>39507</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30">
-        <v>11758</v>
+        <v>7613.5</v>
       </c>
       <c r="U30">
-        <v>4304</v>
+        <v>2242.4</v>
       </c>
       <c r="V30">
-        <v>1323</v>
+        <v>353.9</v>
       </c>
       <c r="W30">
-        <v>-295</v>
+        <v>-114.4</v>
       </c>
       <c r="X30">
-        <v>-216</v>
+        <v>-335</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>13</v>
+        <v>-80.099999999999994</v>
       </c>
       <c r="AA30">
-        <v>767</v>
+        <v>463.8</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43159</v>
+        <v>39599</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>-921</v>
+        <v>490.5</v>
       </c>
       <c r="D31">
-        <v>8984</v>
+        <v>5088</v>
       </c>
       <c r="E31">
-        <v>3792</v>
+        <v>2795.3</v>
       </c>
       <c r="F31">
-        <v>3938</v>
+        <v>2331.4</v>
       </c>
       <c r="G31">
-        <v>15355</v>
+        <v>8839.2999999999993</v>
       </c>
       <c r="H31">
-        <v>22552</v>
+        <v>12442.7</v>
       </c>
       <c r="I31">
-        <v>1961</v>
+        <v>1287.5999999999999</v>
       </c>
       <c r="J31">
-        <v>3469</v>
+        <v>441.1</v>
       </c>
       <c r="K31">
-        <v>11</v>
+        <v>177.7</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -3179,247 +3299,247 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>5783</v>
+        <v>3321.5</v>
       </c>
       <c r="O31">
-        <v>12770</v>
+        <v>4617.1000000000004</v>
       </c>
       <c r="P31">
-        <v>3486</v>
+        <v>625.1</v>
       </c>
       <c r="Q31">
-        <v>-642</v>
+        <v>-108.5</v>
       </c>
       <c r="R31">
-        <v>43159</v>
+        <v>39599</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>32500</v>
       </c>
       <c r="T31">
-        <v>9782</v>
+        <v>7825.6</v>
       </c>
       <c r="U31">
-        <v>3662</v>
+        <v>2133.9</v>
       </c>
       <c r="V31">
-        <v>787</v>
+        <v>632.5</v>
       </c>
       <c r="W31">
-        <v>-325</v>
+        <v>0</v>
       </c>
       <c r="X31">
-        <v>-2234</v>
+        <v>-319.5</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>983</v>
+        <v>54.2</v>
       </c>
       <c r="AA31">
-        <v>-921</v>
+        <v>490.5</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43251</v>
+        <v>39691</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>1137</v>
+        <v>510.5</v>
       </c>
       <c r="D32">
-        <v>9789</v>
+        <v>5432.2</v>
       </c>
       <c r="E32">
-        <v>3498</v>
+        <v>3035.4</v>
       </c>
       <c r="F32">
-        <v>4378</v>
+        <v>2562.1</v>
       </c>
       <c r="G32">
-        <v>15134</v>
+        <v>8944.6</v>
       </c>
       <c r="H32">
-        <v>22536</v>
+        <v>12594.8</v>
       </c>
       <c r="I32">
-        <v>2279</v>
+        <v>1205.9000000000001</v>
       </c>
       <c r="J32">
-        <v>3468</v>
+        <v>407.3</v>
       </c>
       <c r="K32">
-        <v>336</v>
+        <v>220.1</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>-1.6</v>
       </c>
       <c r="N32">
-        <v>6040</v>
+        <v>3311.6</v>
       </c>
       <c r="O32">
-        <v>12724</v>
+        <v>4561.8999999999996</v>
       </c>
       <c r="P32">
-        <v>3885</v>
+        <v>658.9</v>
       </c>
       <c r="Q32">
-        <v>587</v>
+        <v>-508.3</v>
       </c>
       <c r="R32">
-        <v>43251</v>
+        <v>39691</v>
       </c>
       <c r="S32">
-        <v>73100</v>
+        <v>0</v>
       </c>
       <c r="T32">
-        <v>9812</v>
+        <v>8032.9</v>
       </c>
       <c r="U32">
-        <v>4249</v>
+        <v>1625.6</v>
       </c>
       <c r="V32">
-        <v>2270</v>
+        <v>357.6</v>
       </c>
       <c r="W32">
-        <v>-323</v>
+        <v>-113</v>
       </c>
       <c r="X32">
-        <v>-1387</v>
+        <v>-433.9</v>
       </c>
       <c r="Y32">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="Z32">
-        <v>72</v>
+        <v>-321.89999999999998</v>
       </c>
       <c r="AA32">
-        <v>1137</v>
+        <v>510.5</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43343</v>
+        <v>39782</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>1092</v>
+        <v>391</v>
       </c>
       <c r="D33">
-        <v>9948</v>
+        <v>4590.1000000000004</v>
       </c>
       <c r="E33">
-        <v>4330</v>
+        <v>2737.2</v>
       </c>
       <c r="F33">
-        <v>4397</v>
+        <v>2050</v>
       </c>
       <c r="G33">
-        <v>15501</v>
+        <v>8923.4</v>
       </c>
       <c r="H33">
-        <v>22483</v>
+        <v>12634.7</v>
       </c>
       <c r="I33">
-        <v>2333</v>
+        <v>1124.0999999999999</v>
       </c>
       <c r="J33">
-        <v>3467</v>
+        <v>445.5</v>
       </c>
       <c r="K33">
-        <v>13</v>
+        <v>316</v>
       </c>
       <c r="L33">
-        <v>-321</v>
+        <v>0</v>
       </c>
       <c r="M33">
         <v>0</v>
       </c>
       <c r="N33">
-        <v>6708</v>
+        <v>3089.6</v>
       </c>
       <c r="O33">
-        <v>13491</v>
+        <v>4518.2</v>
       </c>
       <c r="P33">
-        <v>3486</v>
+        <v>793.9</v>
       </c>
       <c r="Q33">
-        <v>-967</v>
+        <v>95.9</v>
       </c>
       <c r="R33">
-        <v>43343</v>
+        <v>39782</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>8992</v>
+        <v>8116.5</v>
       </c>
       <c r="U33">
-        <v>3282</v>
+        <v>1721.5</v>
       </c>
       <c r="V33">
-        <v>1301</v>
+        <v>280.7</v>
       </c>
       <c r="W33">
-        <v>-320</v>
+        <v>-111.6</v>
       </c>
       <c r="X33">
-        <v>-1832</v>
+        <v>-128.4</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>6</v>
+        <v>-36.4</v>
       </c>
       <c r="AA33">
-        <v>1092</v>
+        <v>391</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43434</v>
+        <v>39872</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>847</v>
+        <v>243.8</v>
       </c>
       <c r="D34">
-        <v>9374</v>
+        <v>4440.8</v>
       </c>
       <c r="E34">
-        <v>4346</v>
+        <v>2892.4</v>
       </c>
       <c r="F34">
-        <v>4105</v>
+        <v>1948.5</v>
       </c>
       <c r="G34">
-        <v>15566</v>
+        <v>8998.6</v>
       </c>
       <c r="H34">
-        <v>22677</v>
+        <v>12255.7</v>
       </c>
       <c r="I34">
-        <v>2574</v>
+        <v>952</v>
       </c>
       <c r="J34">
-        <v>3466</v>
+        <v>437.8</v>
       </c>
       <c r="K34">
-        <v>9</v>
+        <v>331.1</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,81 +3548,81 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>7278</v>
+        <v>2858.2</v>
       </c>
       <c r="O34">
-        <v>13948</v>
+        <v>4044.6</v>
       </c>
       <c r="P34">
-        <v>3481</v>
+        <v>800.9</v>
       </c>
       <c r="Q34">
-        <v>141</v>
+        <v>170.6</v>
       </c>
       <c r="R34">
-        <v>43434</v>
+        <v>39872</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
       <c r="T34">
-        <v>8729</v>
+        <v>8211.1</v>
       </c>
       <c r="U34">
-        <v>3423</v>
+        <v>1892.1</v>
       </c>
       <c r="V34">
-        <v>1524</v>
+        <v>24.1</v>
       </c>
       <c r="W34">
-        <v>-318</v>
+        <v>-121</v>
       </c>
       <c r="X34">
-        <v>-1458</v>
+        <v>-94.8</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>375</v>
+        <v>292.8</v>
       </c>
       <c r="AA34">
-        <v>847</v>
+        <v>243.8</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43524</v>
+        <v>39964</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>1101</v>
+        <v>341.4</v>
       </c>
       <c r="D35">
-        <v>9611</v>
+        <v>4713</v>
       </c>
       <c r="E35">
-        <v>4549</v>
+        <v>2883.9</v>
       </c>
       <c r="F35">
-        <v>4339</v>
+        <v>2043.8</v>
       </c>
       <c r="G35">
-        <v>15796</v>
+        <v>9734</v>
       </c>
       <c r="H35">
-        <v>22921</v>
+        <v>13249.6</v>
       </c>
       <c r="I35">
-        <v>2307</v>
+        <v>1031.9000000000001</v>
       </c>
       <c r="J35">
-        <v>3465</v>
+        <v>437.2</v>
       </c>
       <c r="K35">
-        <v>16</v>
+        <v>342.9</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -3511,247 +3631,247 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>7281</v>
+        <v>3277</v>
       </c>
       <c r="O35">
-        <v>13960</v>
+        <v>4556.2</v>
       </c>
       <c r="P35">
-        <v>3487</v>
+        <v>812.1</v>
       </c>
       <c r="Q35">
-        <v>272</v>
+        <v>399</v>
       </c>
       <c r="R35">
-        <v>43524</v>
+        <v>39964</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>34300</v>
       </c>
       <c r="T35">
-        <v>8961</v>
+        <v>8693.4</v>
       </c>
       <c r="U35">
-        <v>3695</v>
+        <v>2291.1</v>
       </c>
       <c r="V35">
-        <v>1068</v>
+        <v>1073.7</v>
       </c>
       <c r="W35">
-        <v>-348</v>
+        <v>0</v>
       </c>
       <c r="X35">
-        <v>-977</v>
+        <v>-76.8</v>
       </c>
       <c r="Y35">
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>339</v>
+        <v>-453.2</v>
       </c>
       <c r="AA35">
-        <v>1101</v>
+        <v>341.4</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43616</v>
+        <v>40056</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>989</v>
+        <v>513</v>
       </c>
       <c r="D36">
-        <v>10184</v>
+        <v>4799</v>
       </c>
       <c r="E36">
-        <v>4272</v>
+        <v>2835.3</v>
       </c>
       <c r="F36">
-        <v>4633</v>
+        <v>2216</v>
       </c>
       <c r="G36">
-        <v>16525</v>
+        <v>9606.9</v>
       </c>
       <c r="H36">
-        <v>23717</v>
+        <v>13190.6</v>
       </c>
       <c r="I36">
-        <v>2612</v>
+        <v>961.9</v>
       </c>
       <c r="J36">
-        <v>3464</v>
+        <v>443.2</v>
       </c>
       <c r="K36">
-        <v>9</v>
+        <v>94.7</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>-249</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>-27</v>
       </c>
       <c r="N36">
-        <v>7866</v>
+        <v>2852.8</v>
       </c>
       <c r="O36">
-        <v>14677</v>
+        <v>4099.6000000000004</v>
       </c>
       <c r="P36">
-        <v>3853</v>
+        <v>545</v>
       </c>
       <c r="Q36">
-        <v>771</v>
+        <v>-30</v>
       </c>
       <c r="R36">
-        <v>43616</v>
+        <v>40056</v>
       </c>
       <c r="S36">
-        <v>76700</v>
+        <v>0</v>
       </c>
       <c r="T36">
-        <v>9040</v>
+        <v>9091</v>
       </c>
       <c r="U36">
-        <v>4466</v>
+        <v>2260.6</v>
       </c>
       <c r="V36">
-        <v>2010</v>
+        <v>709</v>
       </c>
       <c r="W36">
-        <v>-346</v>
+        <v>-121</v>
       </c>
       <c r="X36">
-        <v>-1026</v>
+        <v>-358</v>
       </c>
       <c r="Y36">
-        <v>342</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>130</v>
+        <v>-221</v>
       </c>
       <c r="AA36">
-        <v>989</v>
+        <v>513</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43708</v>
+        <v>40147</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>1367</v>
+        <v>375</v>
       </c>
       <c r="D37">
-        <v>10660</v>
+        <v>4405</v>
       </c>
       <c r="E37">
-        <v>4656</v>
+        <v>2716.5</v>
       </c>
       <c r="F37">
-        <v>4871</v>
+        <v>1960</v>
       </c>
       <c r="G37">
-        <v>16228</v>
+        <v>9765.6</v>
       </c>
       <c r="H37">
-        <v>26249</v>
+        <v>13358.4</v>
       </c>
       <c r="I37">
-        <v>2716</v>
+        <v>1008.7</v>
       </c>
       <c r="J37">
-        <v>3463</v>
+        <v>459.6</v>
       </c>
       <c r="K37">
-        <v>250</v>
+        <v>103.1</v>
       </c>
       <c r="L37">
         <v>0</v>
       </c>
       <c r="M37">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N37">
-        <v>8070</v>
+        <v>2798.3</v>
       </c>
       <c r="O37">
-        <v>17049</v>
+        <v>4134</v>
       </c>
       <c r="P37">
-        <v>6821</v>
+        <v>570.29999999999995</v>
       </c>
       <c r="Q37">
-        <v>-1020</v>
+        <v>-226</v>
       </c>
       <c r="R37">
-        <v>43708</v>
+        <v>40147</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>9200</v>
+        <v>9224.4</v>
       </c>
       <c r="U37">
-        <v>3446</v>
+        <v>2035.2</v>
       </c>
       <c r="V37">
-        <v>394</v>
+        <v>668</v>
       </c>
       <c r="W37">
-        <v>-345</v>
+        <v>-122</v>
       </c>
       <c r="X37">
-        <v>-1010</v>
+        <v>-148</v>
       </c>
       <c r="Y37">
-        <v>2675</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>45</v>
+        <v>-610</v>
       </c>
       <c r="AA37">
-        <v>1367</v>
+        <v>375</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43799</v>
+        <v>40237</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>1115</v>
+        <v>497</v>
       </c>
       <c r="D38">
-        <v>10326</v>
+        <v>4733</v>
       </c>
       <c r="E38">
-        <v>4792</v>
+        <v>2833.8</v>
       </c>
       <c r="F38">
-        <v>4544</v>
+        <v>2218</v>
       </c>
       <c r="G38">
-        <v>16369</v>
+        <v>10088</v>
       </c>
       <c r="H38">
-        <v>26602</v>
+        <v>13576.3</v>
       </c>
       <c r="I38">
-        <v>2627</v>
+        <v>994.7</v>
       </c>
       <c r="J38">
-        <v>3462</v>
+        <v>451.9</v>
       </c>
       <c r="K38">
-        <v>300</v>
+        <v>108.8</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,81 +3880,81 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>8264</v>
+        <v>2846.7</v>
       </c>
       <c r="O38">
-        <v>17251</v>
+        <v>4147.1000000000004</v>
       </c>
       <c r="P38">
-        <v>6922</v>
+        <v>568.20000000000005</v>
       </c>
       <c r="Q38">
-        <v>-376</v>
+        <v>190</v>
       </c>
       <c r="R38">
-        <v>43799</v>
+        <v>40237</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38">
-        <v>9351</v>
+        <v>9429.2000000000007</v>
       </c>
       <c r="U38">
-        <v>3070</v>
+        <v>2225.1999999999998</v>
       </c>
       <c r="V38">
-        <v>912</v>
+        <v>512</v>
       </c>
       <c r="W38">
-        <v>-344</v>
+        <v>-132</v>
       </c>
       <c r="X38">
-        <v>-858</v>
+        <v>-403</v>
       </c>
       <c r="Y38">
-        <v>2723</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-202</v>
+        <v>153</v>
       </c>
       <c r="AA38">
-        <v>1115</v>
+        <v>497</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43890</v>
+        <v>40329</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>847</v>
+        <v>522</v>
       </c>
       <c r="D39">
-        <v>10104</v>
+        <v>5077</v>
       </c>
       <c r="E39">
-        <v>4473</v>
+        <v>2650</v>
       </c>
       <c r="F39">
-        <v>4473</v>
+        <v>2406</v>
       </c>
       <c r="G39">
-        <v>15744</v>
+        <v>10959</v>
       </c>
       <c r="H39">
-        <v>26220</v>
+        <v>14419</v>
       </c>
       <c r="I39">
-        <v>2221</v>
+        <v>1255</v>
       </c>
       <c r="J39">
-        <v>3463</v>
+        <v>446</v>
       </c>
       <c r="K39">
-        <v>9</v>
+        <v>139</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -3843,295 +3963,3615 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>8280</v>
+        <v>3364</v>
       </c>
       <c r="O39">
-        <v>17175</v>
+        <v>4665</v>
       </c>
       <c r="P39">
-        <v>6656</v>
+        <v>592</v>
       </c>
       <c r="Q39">
-        <v>-207</v>
+        <v>854</v>
       </c>
       <c r="R39">
-        <v>43890</v>
+        <v>40329</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>34400</v>
       </c>
       <c r="T39">
-        <v>9045</v>
+        <v>9754</v>
       </c>
       <c r="U39">
-        <v>2863</v>
+        <v>3079</v>
       </c>
       <c r="V39">
-        <v>1180</v>
+        <v>1275</v>
       </c>
       <c r="W39">
-        <v>-382</v>
+        <v>-130</v>
       </c>
       <c r="X39">
-        <v>-1442</v>
+        <v>-152</v>
       </c>
       <c r="Y39">
-        <v>2758</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>166</v>
+        <v>-259</v>
       </c>
       <c r="AA39">
-        <v>847</v>
+        <v>522</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>43982</v>
+        <v>40421</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>-790</v>
+        <v>559</v>
       </c>
       <c r="D40">
-        <v>6313</v>
+        <v>5175</v>
       </c>
       <c r="E40">
-        <v>2749</v>
+        <v>2791</v>
       </c>
       <c r="F40">
-        <v>2353</v>
+        <v>2434</v>
       </c>
       <c r="G40">
-        <v>20556</v>
+        <v>10531</v>
       </c>
       <c r="H40">
-        <v>31342</v>
+        <v>14051</v>
       </c>
       <c r="I40">
-        <v>2248</v>
+        <v>1101</v>
       </c>
       <c r="J40">
-        <v>9406</v>
+        <v>342</v>
       </c>
       <c r="K40">
-        <v>248</v>
+        <v>109</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="N40">
-        <v>8284</v>
+        <v>3142</v>
       </c>
       <c r="O40">
-        <v>23287</v>
+        <v>4391</v>
       </c>
       <c r="P40">
-        <v>13015</v>
+        <v>583</v>
       </c>
       <c r="Q40">
-        <v>5485</v>
+        <v>-1069</v>
       </c>
       <c r="R40">
-        <v>43982</v>
+        <v>40421</v>
       </c>
       <c r="S40">
-        <v>75400</v>
+        <v>0</v>
       </c>
       <c r="T40">
-        <v>8055</v>
+        <v>9660</v>
       </c>
       <c r="U40">
-        <v>8348</v>
+        <v>2010</v>
       </c>
       <c r="V40">
-        <v>-1</v>
+        <v>212</v>
       </c>
       <c r="W40">
-        <v>-381</v>
+        <v>-131</v>
       </c>
       <c r="X40">
-        <v>5801</v>
+        <v>-600</v>
       </c>
       <c r="Y40">
-        <v>2913</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>18</v>
+        <v>-614</v>
       </c>
       <c r="AA40">
-        <v>-790</v>
+        <v>559</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44074</v>
+        <v>40512</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>1518</v>
+        <v>457</v>
       </c>
       <c r="D41">
-        <v>10594</v>
+        <v>4842</v>
       </c>
       <c r="E41">
-        <v>3813</v>
+        <v>2792</v>
       </c>
       <c r="F41">
-        <v>4741</v>
+        <v>2193</v>
       </c>
       <c r="G41">
-        <v>21937</v>
+        <v>10916</v>
       </c>
       <c r="H41">
-        <v>33258</v>
+        <v>14464</v>
       </c>
       <c r="I41">
-        <v>1983</v>
+        <v>1225</v>
       </c>
       <c r="J41">
-        <v>9408</v>
+        <v>338</v>
       </c>
       <c r="K41">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="L41">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>-83</v>
+        <v>0</v>
       </c>
       <c r="N41">
-        <v>8619</v>
+        <v>3248</v>
       </c>
       <c r="O41">
-        <v>24034</v>
+        <v>4515</v>
       </c>
       <c r="P41">
-        <v>12966</v>
+        <v>598</v>
       </c>
       <c r="Q41">
-        <v>-200</v>
+        <v>-242</v>
       </c>
       <c r="R41">
-        <v>44074</v>
+        <v>40512</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>9224</v>
+        <v>9949</v>
       </c>
       <c r="U41">
-        <v>8148</v>
+        <v>1768</v>
       </c>
       <c r="V41">
-        <v>882</v>
+        <v>435</v>
       </c>
       <c r="W41">
-        <v>-384</v>
+        <v>-129</v>
       </c>
       <c r="X41">
-        <v>-248</v>
+        <v>-196</v>
       </c>
       <c r="Y41">
-        <v>2961</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>-715</v>
+        <v>-350</v>
       </c>
       <c r="AA41">
-        <v>1518</v>
+        <v>457</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44165</v>
+        <v>40602</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>523</v>
+      </c>
+      <c r="D42">
+        <v>5079</v>
+      </c>
+      <c r="E42">
+        <v>2985</v>
+      </c>
+      <c r="F42">
+        <v>2327</v>
+      </c>
+      <c r="G42">
+        <v>10785</v>
+      </c>
+      <c r="H42">
+        <v>14478</v>
+      </c>
+      <c r="I42">
+        <v>1147</v>
+      </c>
+      <c r="J42">
+        <v>276</v>
+      </c>
+      <c r="K42">
+        <v>139</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>3342</v>
+      </c>
+      <c r="O42">
+        <v>4576</v>
+      </c>
+      <c r="P42">
+        <v>613</v>
+      </c>
+      <c r="Q42">
+        <v>364</v>
+      </c>
+      <c r="R42">
+        <v>40602</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>9902</v>
+      </c>
+      <c r="U42">
+        <v>2132</v>
+      </c>
+      <c r="V42">
+        <v>323</v>
+      </c>
+      <c r="W42">
+        <v>-148</v>
+      </c>
+      <c r="X42">
+        <v>-542</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>682</v>
+      </c>
+      <c r="AA42">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40694</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>594</v>
+      </c>
+      <c r="D43">
+        <v>5766</v>
+      </c>
+      <c r="E43">
+        <v>3138</v>
+      </c>
+      <c r="F43">
+        <v>2554</v>
+      </c>
+      <c r="G43">
+        <v>11297</v>
+      </c>
+      <c r="H43">
+        <v>14998</v>
+      </c>
+      <c r="I43">
+        <v>1469</v>
+      </c>
+      <c r="J43">
+        <v>276</v>
+      </c>
+      <c r="K43">
+        <v>187</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>3958</v>
+      </c>
+      <c r="O43">
+        <v>5155</v>
+      </c>
+      <c r="P43">
+        <v>663</v>
+      </c>
+      <c r="Q43">
+        <v>-177</v>
+      </c>
+      <c r="R43">
+        <v>40694</v>
+      </c>
+      <c r="S43">
+        <v>38000</v>
+      </c>
+      <c r="T43">
+        <v>9843</v>
+      </c>
+      <c r="U43">
+        <v>1955</v>
+      </c>
+      <c r="V43">
+        <v>842</v>
+      </c>
+      <c r="W43">
+        <v>-147</v>
+      </c>
+      <c r="X43">
+        <v>-634</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>-255</v>
+      </c>
+      <c r="AA43">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40786</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>645</v>
+      </c>
+      <c r="D44">
+        <v>5893</v>
+      </c>
+      <c r="E44">
+        <v>3279</v>
+      </c>
+      <c r="F44">
+        <v>2618</v>
+      </c>
+      <c r="G44">
+        <v>11039</v>
+      </c>
+      <c r="H44">
+        <v>14803</v>
+      </c>
+      <c r="I44">
+        <v>1421</v>
+      </c>
+      <c r="J44">
+        <v>238</v>
+      </c>
+      <c r="K44">
+        <v>164</v>
+      </c>
+      <c r="L44">
+        <v>-18</v>
+      </c>
+      <c r="M44">
+        <v>-132</v>
+      </c>
+      <c r="N44">
+        <v>3760</v>
+      </c>
+      <c r="O44">
+        <v>4904</v>
+      </c>
+      <c r="P44">
+        <v>518</v>
+      </c>
+      <c r="Q44">
+        <v>-347</v>
+      </c>
+      <c r="R44">
+        <v>40786</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>9899</v>
+      </c>
+      <c r="U44">
+        <v>1608</v>
+      </c>
+      <c r="V44">
+        <v>87</v>
+      </c>
+      <c r="W44">
+        <v>-145</v>
+      </c>
+      <c r="X44">
+        <v>-744</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>484</v>
+      </c>
+      <c r="AA44">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40877</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>469</v>
+      </c>
+      <c r="D45">
+        <v>5546</v>
+      </c>
+      <c r="E45">
+        <v>3103</v>
+      </c>
+      <c r="F45">
+        <v>2376</v>
+      </c>
+      <c r="G45">
+        <v>10725</v>
+      </c>
+      <c r="H45">
+        <v>14565</v>
+      </c>
+      <c r="I45">
+        <v>1411</v>
+      </c>
+      <c r="J45">
+        <v>234</v>
+      </c>
+      <c r="K45">
+        <v>123</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>3563</v>
+      </c>
+      <c r="O45">
+        <v>4722</v>
+      </c>
+      <c r="P45">
+        <v>471</v>
+      </c>
+      <c r="Q45">
+        <v>321</v>
+      </c>
+      <c r="R45">
+        <v>40877</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>9843</v>
+      </c>
+      <c r="U45">
+        <v>1929</v>
+      </c>
+      <c r="V45">
+        <v>510</v>
+      </c>
+      <c r="W45">
+        <v>-144</v>
+      </c>
+      <c r="X45">
+        <v>-710</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>651</v>
+      </c>
+      <c r="AA45">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40968</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>560</v>
+      </c>
+      <c r="D46">
+        <v>5656</v>
+      </c>
+      <c r="E46">
+        <v>3296</v>
+      </c>
+      <c r="F46">
+        <v>2485</v>
+      </c>
+      <c r="G46">
+        <v>10932</v>
+      </c>
+      <c r="H46">
+        <v>14794</v>
+      </c>
+      <c r="I46">
+        <v>1298</v>
+      </c>
+      <c r="J46">
+        <v>229</v>
+      </c>
+      <c r="K46">
+        <v>91</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>3410</v>
+      </c>
+      <c r="O46">
+        <v>4618</v>
+      </c>
+      <c r="P46">
+        <v>369</v>
+      </c>
+      <c r="Q46">
+        <v>92</v>
+      </c>
+      <c r="R46">
+        <v>40968</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>10176</v>
+      </c>
+      <c r="U46">
+        <v>2021</v>
+      </c>
+      <c r="V46">
+        <v>328</v>
+      </c>
+      <c r="W46">
+        <v>-165</v>
+      </c>
+      <c r="X46">
+        <v>-416</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>257</v>
+      </c>
+      <c r="AA46">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>41060</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>549</v>
+      </c>
+      <c r="D47">
+        <v>6236</v>
+      </c>
+      <c r="E47">
+        <v>3132</v>
+      </c>
+      <c r="F47">
+        <v>2669</v>
+      </c>
+      <c r="G47">
+        <v>11845</v>
+      </c>
+      <c r="H47">
+        <v>15465</v>
+      </c>
+      <c r="I47">
+        <v>1549</v>
+      </c>
+      <c r="J47">
+        <v>228</v>
+      </c>
+      <c r="K47">
+        <v>108</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>3882</v>
+      </c>
+      <c r="O47">
+        <v>5084</v>
+      </c>
+      <c r="P47">
+        <v>385</v>
+      </c>
+      <c r="Q47">
+        <v>296</v>
+      </c>
+      <c r="R47">
+        <v>41060</v>
+      </c>
+      <c r="S47">
+        <v>44000</v>
+      </c>
+      <c r="T47">
+        <v>10381</v>
+      </c>
+      <c r="U47">
+        <v>2317</v>
+      </c>
+      <c r="V47">
+        <v>974</v>
+      </c>
+      <c r="W47">
+        <v>-165</v>
+      </c>
+      <c r="X47">
+        <v>-248</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-268</v>
+      </c>
+      <c r="AA47">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41152</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>567</v>
+      </c>
+      <c r="D48">
+        <v>6474</v>
+      </c>
+      <c r="E48">
+        <v>3431</v>
+      </c>
+      <c r="F48">
+        <v>2828</v>
+      </c>
+      <c r="G48">
+        <v>11136</v>
+      </c>
+      <c r="H48">
+        <v>15114</v>
+      </c>
+      <c r="I48">
+        <v>1551</v>
+      </c>
+      <c r="J48">
+        <v>226</v>
+      </c>
+      <c r="K48">
+        <v>129</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>-42</v>
+      </c>
+      <c r="N48">
+        <v>3776</v>
+      </c>
+      <c r="O48">
+        <v>5067</v>
+      </c>
+      <c r="P48">
+        <v>364</v>
+      </c>
+      <c r="Q48">
+        <v>-152</v>
+      </c>
+      <c r="R48">
+        <v>41152</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>10047</v>
+      </c>
+      <c r="U48">
+        <v>2165</v>
+      </c>
+      <c r="V48">
+        <v>535</v>
+      </c>
+      <c r="W48">
+        <v>-165</v>
+      </c>
+      <c r="X48">
+        <v>-907</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>333</v>
+      </c>
+      <c r="AA48">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41243</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>5955</v>
+      </c>
+      <c r="E49">
+        <v>3188</v>
+      </c>
+      <c r="F49">
+        <v>2530</v>
+      </c>
+      <c r="G49">
+        <v>11435</v>
+      </c>
+      <c r="H49">
+        <v>15171</v>
+      </c>
+      <c r="I49">
+        <v>1519</v>
+      </c>
+      <c r="J49">
+        <v>170</v>
+      </c>
+      <c r="K49">
+        <v>100</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>3799</v>
+      </c>
+      <c r="O49">
+        <v>5157</v>
+      </c>
+      <c r="P49">
+        <v>328</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>41243</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>10014</v>
+      </c>
+      <c r="U49">
+        <v>2291</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41333</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>866</v>
+      </c>
+      <c r="D50">
+        <v>6187</v>
+      </c>
+      <c r="E50">
+        <v>3232</v>
+      </c>
+      <c r="F50">
+        <v>2736</v>
+      </c>
+      <c r="G50">
+        <v>11789</v>
+      </c>
+      <c r="H50">
+        <v>15615</v>
+      </c>
+      <c r="I50">
+        <v>1241</v>
+      </c>
+      <c r="J50">
+        <v>161</v>
+      </c>
+      <c r="K50">
+        <v>103</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>3500</v>
+      </c>
+      <c r="O50">
+        <v>4948</v>
+      </c>
+      <c r="P50">
+        <v>321</v>
+      </c>
+      <c r="Q50">
+        <v>266</v>
+      </c>
+      <c r="R50">
+        <v>41333</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>10667</v>
+      </c>
+      <c r="U50">
+        <v>2557</v>
+      </c>
+      <c r="V50">
+        <v>447</v>
+      </c>
+      <c r="W50">
+        <v>-188</v>
+      </c>
+      <c r="X50">
+        <v>-352</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>-255</v>
+      </c>
+      <c r="AA50">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41425</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>655</v>
+      </c>
+      <c r="D51">
+        <v>6697</v>
+      </c>
+      <c r="E51">
+        <v>3117</v>
+      </c>
+      <c r="F51">
+        <v>2940</v>
+      </c>
+      <c r="G51">
+        <v>13630</v>
+      </c>
+      <c r="H51">
+        <v>17545</v>
+      </c>
+      <c r="I51">
+        <v>1614</v>
+      </c>
+      <c r="J51">
+        <v>1210</v>
+      </c>
+      <c r="K51">
+        <v>153</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>3962</v>
+      </c>
+      <c r="O51">
+        <v>6464</v>
+      </c>
+      <c r="P51">
+        <v>1420</v>
+      </c>
+      <c r="Q51">
+        <v>843</v>
+      </c>
+      <c r="R51">
+        <v>41425</v>
+      </c>
+      <c r="S51">
+        <v>48000</v>
+      </c>
+      <c r="T51">
+        <v>11081</v>
+      </c>
+      <c r="U51">
+        <v>3337</v>
+      </c>
+      <c r="V51">
+        <v>1276</v>
+      </c>
+      <c r="W51">
+        <v>-188</v>
+      </c>
+      <c r="X51">
+        <v>738</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-1082</v>
+      </c>
+      <c r="AA51">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41517</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>779</v>
+      </c>
+      <c r="D52">
+        <v>6971</v>
+      </c>
+      <c r="E52">
+        <v>3207</v>
+      </c>
+      <c r="F52">
+        <v>3132</v>
+      </c>
+      <c r="G52">
+        <v>13618</v>
+      </c>
+      <c r="H52">
+        <v>17674</v>
+      </c>
+      <c r="I52">
+        <v>1559</v>
+      </c>
+      <c r="J52">
+        <v>1207</v>
+      </c>
+      <c r="K52">
+        <v>111</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>-2</v>
+      </c>
+      <c r="N52">
+        <v>3863</v>
+      </c>
+      <c r="O52">
+        <v>6392</v>
+      </c>
+      <c r="P52">
+        <v>1375</v>
+      </c>
+      <c r="Q52">
+        <v>-676</v>
+      </c>
+      <c r="R52">
+        <v>41517</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>11282</v>
+      </c>
+      <c r="U52">
+        <v>2936</v>
+      </c>
+      <c r="V52">
+        <v>618</v>
+      </c>
+      <c r="W52">
+        <v>-188</v>
+      </c>
+      <c r="X52">
+        <v>-592</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-349</v>
+      </c>
+      <c r="AA52">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41608</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>534</v>
+      </c>
+      <c r="D53">
+        <v>6431</v>
+      </c>
+      <c r="E53">
+        <v>3208</v>
+      </c>
+      <c r="F53">
+        <v>2826</v>
+      </c>
+      <c r="G53">
+        <v>13607</v>
+      </c>
+      <c r="H53">
+        <v>17820</v>
+      </c>
+      <c r="I53">
+        <v>1612</v>
+      </c>
+      <c r="J53">
+        <v>1201</v>
+      </c>
+      <c r="K53">
+        <v>180</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>3851</v>
+      </c>
+      <c r="O53">
+        <v>6476</v>
+      </c>
+      <c r="P53">
+        <v>1388</v>
+      </c>
+      <c r="Q53">
+        <v>-575</v>
+      </c>
+      <c r="R53">
+        <v>41608</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>11344</v>
+      </c>
+      <c r="U53">
+        <v>2086</v>
+      </c>
+      <c r="V53">
+        <v>330</v>
+      </c>
+      <c r="W53">
+        <v>-187</v>
+      </c>
+      <c r="X53">
+        <v>-405</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-291</v>
+      </c>
+      <c r="AA53">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41698</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>682</v>
+      </c>
+      <c r="D54">
+        <v>6972</v>
+      </c>
+      <c r="E54">
+        <v>3355</v>
+      </c>
+      <c r="F54">
+        <v>3103</v>
+      </c>
+      <c r="G54">
+        <v>13410</v>
+      </c>
+      <c r="H54">
+        <v>17803</v>
+      </c>
+      <c r="I54">
+        <v>1480</v>
+      </c>
+      <c r="J54">
+        <v>1201</v>
+      </c>
+      <c r="K54">
+        <v>119</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>3954</v>
+      </c>
+      <c r="O54">
+        <v>6670</v>
+      </c>
+      <c r="P54">
+        <v>1327</v>
+      </c>
+      <c r="Q54">
+        <v>-222</v>
+      </c>
+      <c r="R54">
+        <v>41698</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>11133</v>
+      </c>
+      <c r="U54">
+        <v>1864</v>
+      </c>
+      <c r="V54">
+        <v>737</v>
+      </c>
+      <c r="W54">
+        <v>-212</v>
+      </c>
+      <c r="X54">
+        <v>-920</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>79</v>
+      </c>
+      <c r="AA54">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41790</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>698</v>
+      </c>
+      <c r="D55">
+        <v>7425</v>
+      </c>
+      <c r="E55">
+        <v>3434</v>
+      </c>
+      <c r="F55">
+        <v>3385</v>
+      </c>
+      <c r="G55">
+        <v>13696</v>
+      </c>
+      <c r="H55">
+        <v>18594</v>
+      </c>
+      <c r="I55">
+        <v>1870</v>
+      </c>
+      <c r="J55">
+        <v>1199</v>
+      </c>
+      <c r="K55">
+        <v>227</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>5027</v>
+      </c>
+      <c r="O55">
+        <v>7770</v>
+      </c>
+      <c r="P55">
+        <v>1507</v>
+      </c>
+      <c r="Q55">
+        <v>356</v>
+      </c>
+      <c r="R55">
+        <v>41790</v>
+      </c>
+      <c r="S55">
+        <v>56500</v>
+      </c>
+      <c r="T55">
+        <v>10824</v>
+      </c>
+      <c r="U55">
+        <v>2220</v>
+      </c>
+      <c r="V55">
+        <v>1328</v>
+      </c>
+      <c r="W55">
+        <v>-212</v>
+      </c>
+      <c r="X55">
+        <v>-997</v>
+      </c>
+      <c r="Y55">
+        <v>74</v>
+      </c>
+      <c r="Z55">
+        <v>233</v>
+      </c>
+      <c r="AA55">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41882</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>962</v>
+      </c>
+      <c r="D56">
+        <v>7982</v>
+      </c>
+      <c r="E56">
+        <v>3587</v>
+      </c>
+      <c r="F56">
+        <v>3721</v>
+      </c>
+      <c r="G56">
+        <v>13540</v>
+      </c>
+      <c r="H56">
+        <v>18521</v>
+      </c>
+      <c r="I56">
+        <v>1970</v>
+      </c>
+      <c r="J56">
+        <v>1195</v>
+      </c>
+      <c r="K56">
+        <v>146</v>
+      </c>
+      <c r="L56">
+        <v>-17</v>
+      </c>
+      <c r="M56">
+        <v>-8</v>
+      </c>
+      <c r="N56">
+        <v>4813</v>
+      </c>
+      <c r="O56">
+        <v>7416</v>
+      </c>
+      <c r="P56">
+        <v>1347</v>
+      </c>
+      <c r="Q56">
+        <v>83</v>
+      </c>
+      <c r="R56">
+        <v>41882</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>11105</v>
+      </c>
+      <c r="U56">
+        <v>2303</v>
+      </c>
+      <c r="V56">
+        <v>683</v>
+      </c>
+      <c r="W56">
+        <v>-209</v>
+      </c>
+      <c r="X56">
+        <v>-882</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>540</v>
+      </c>
+      <c r="AA56">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41973</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>655</v>
+      </c>
+      <c r="D57">
+        <v>7380</v>
+      </c>
+      <c r="E57">
+        <v>3457</v>
+      </c>
+      <c r="F57">
+        <v>3327</v>
+      </c>
+      <c r="G57">
+        <v>14033</v>
+      </c>
+      <c r="H57">
+        <v>19167</v>
+      </c>
+      <c r="I57">
+        <v>2074</v>
+      </c>
+      <c r="J57">
+        <v>1084</v>
+      </c>
+      <c r="K57">
+        <v>93</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>4937</v>
+      </c>
+      <c r="O57">
+        <v>7467</v>
+      </c>
+      <c r="P57">
+        <v>1287</v>
+      </c>
+      <c r="Q57">
+        <v>-30</v>
+      </c>
+      <c r="R57">
+        <v>41973</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>11700</v>
+      </c>
+      <c r="U57">
+        <v>2273</v>
+      </c>
+      <c r="V57">
+        <v>864</v>
+      </c>
+      <c r="W57">
+        <v>-207</v>
+      </c>
+      <c r="X57">
+        <v>-422</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-221</v>
+      </c>
+      <c r="AA57">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42063</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>791</v>
+      </c>
+      <c r="D58">
+        <v>7460</v>
+      </c>
+      <c r="E58">
+        <v>3294</v>
+      </c>
+      <c r="F58">
+        <v>3426</v>
+      </c>
+      <c r="G58">
+        <v>15207</v>
+      </c>
+      <c r="H58">
+        <v>20541</v>
+      </c>
+      <c r="I58">
+        <v>1821</v>
+      </c>
+      <c r="J58">
+        <v>1082</v>
+      </c>
+      <c r="K58">
+        <v>61</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>5586</v>
+      </c>
+      <c r="O58">
+        <v>8173</v>
+      </c>
+      <c r="P58">
         <v>1251</v>
       </c>
-      <c r="D42">
+      <c r="Q58">
+        <v>742</v>
+      </c>
+      <c r="R58">
+        <v>42063</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>12368</v>
+      </c>
+      <c r="U58">
+        <v>3015</v>
+      </c>
+      <c r="V58">
+        <v>1791</v>
+      </c>
+      <c r="W58">
+        <v>-242</v>
+      </c>
+      <c r="X58">
+        <v>-791</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>269</v>
+      </c>
+      <c r="AA58">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42155</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>865</v>
+      </c>
+      <c r="D59">
+        <v>7779</v>
+      </c>
+      <c r="E59">
+        <v>3358</v>
+      </c>
+      <c r="F59">
+        <v>3593</v>
+      </c>
+      <c r="G59">
+        <v>15587</v>
+      </c>
+      <c r="H59">
+        <v>21597</v>
+      </c>
+      <c r="I59">
+        <v>2131</v>
+      </c>
+      <c r="J59">
+        <v>1079</v>
+      </c>
+      <c r="K59">
+        <v>74</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>6332</v>
+      </c>
+      <c r="O59">
+        <v>8890</v>
+      </c>
+      <c r="P59">
+        <v>1260</v>
+      </c>
+      <c r="Q59">
+        <v>837</v>
+      </c>
+      <c r="R59">
+        <v>42155</v>
+      </c>
+      <c r="S59">
+        <v>62600</v>
+      </c>
+      <c r="T59">
+        <v>12707</v>
+      </c>
+      <c r="U59">
+        <v>3852</v>
+      </c>
+      <c r="V59">
+        <v>1342</v>
+      </c>
+      <c r="W59">
+        <v>-241</v>
+      </c>
+      <c r="X59">
+        <v>-695</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>347</v>
+      </c>
+      <c r="AA59">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42247</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>1179</v>
+      </c>
+      <c r="D60">
+        <v>8414</v>
+      </c>
+      <c r="E60">
+        <v>3288</v>
+      </c>
+      <c r="F60">
+        <v>3995</v>
+      </c>
+      <c r="G60">
+        <v>15238</v>
+      </c>
+      <c r="H60">
+        <v>20766</v>
+      </c>
+      <c r="I60">
+        <v>1933</v>
+      </c>
+      <c r="J60">
+        <v>1079</v>
+      </c>
+      <c r="K60">
+        <v>23</v>
+      </c>
+      <c r="L60">
+        <v>-48</v>
+      </c>
+      <c r="M60">
+        <v>-1</v>
+      </c>
+      <c r="N60">
+        <v>5276</v>
+      </c>
+      <c r="O60">
+        <v>7872</v>
+      </c>
+      <c r="P60">
+        <v>1208</v>
+      </c>
+      <c r="Q60">
+        <v>-606</v>
+      </c>
+      <c r="R60">
+        <v>42247</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>12894</v>
+      </c>
+      <c r="U60">
+        <v>3246</v>
+      </c>
+      <c r="V60">
+        <v>491</v>
+      </c>
+      <c r="W60">
+        <v>-240</v>
+      </c>
+      <c r="X60">
+        <v>-674</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-17</v>
+      </c>
+      <c r="AA60">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42338</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>785</v>
+      </c>
+      <c r="D61">
+        <v>7686</v>
+      </c>
+      <c r="E61">
+        <v>3437</v>
+      </c>
+      <c r="F61">
+        <v>3501</v>
+      </c>
+      <c r="G61">
+        <v>16755</v>
+      </c>
+      <c r="H61">
+        <v>22583</v>
+      </c>
+      <c r="I61">
+        <v>1915</v>
+      </c>
+      <c r="J61">
+        <v>2067</v>
+      </c>
+      <c r="K61">
+        <v>99</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>5511</v>
+      </c>
+      <c r="O61">
+        <v>9178</v>
+      </c>
+      <c r="P61">
+        <v>2176</v>
+      </c>
+      <c r="Q61">
+        <v>605</v>
+      </c>
+      <c r="R61">
+        <v>42338</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>13405</v>
+      </c>
+      <c r="U61">
+        <v>3851</v>
+      </c>
+      <c r="V61">
+        <v>545</v>
+      </c>
+      <c r="W61">
+        <v>-239</v>
+      </c>
+      <c r="X61">
+        <v>392</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>-74</v>
+      </c>
+      <c r="AA61">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42429</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>950</v>
+      </c>
+      <c r="D62">
+        <v>8032</v>
+      </c>
+      <c r="E62">
+        <v>3368</v>
+      </c>
+      <c r="F62">
+        <v>3689</v>
+      </c>
+      <c r="G62">
+        <v>15256</v>
+      </c>
+      <c r="H62">
+        <v>20987</v>
+      </c>
+      <c r="I62">
+        <v>1714</v>
+      </c>
+      <c r="J62">
+        <v>2048</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>4980</v>
+      </c>
+      <c r="O62">
+        <v>8687</v>
+      </c>
+      <c r="P62">
+        <v>2109</v>
+      </c>
+      <c r="Q62">
+        <v>-807</v>
+      </c>
+      <c r="R62">
+        <v>42429</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>12300</v>
+      </c>
+      <c r="U62">
+        <v>3044</v>
+      </c>
+      <c r="V62">
+        <v>876</v>
+      </c>
+      <c r="W62">
+        <v>-273</v>
+      </c>
+      <c r="X62">
+        <v>-1763</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>292</v>
+      </c>
+      <c r="AA62">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42521</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>846</v>
+      </c>
+      <c r="D63">
+        <v>8244</v>
+      </c>
+      <c r="E63">
+        <v>3241</v>
+      </c>
+      <c r="F63">
+        <v>3786</v>
+      </c>
+      <c r="G63">
+        <v>15025</v>
+      </c>
+      <c r="H63">
+        <v>21379</v>
+      </c>
+      <c r="I63">
+        <v>2191</v>
+      </c>
+      <c r="J63">
+        <v>1993</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>5358</v>
+      </c>
+      <c r="O63">
+        <v>9121</v>
+      </c>
+      <c r="P63">
+        <v>2083</v>
+      </c>
+      <c r="Q63">
+        <v>94</v>
+      </c>
+      <c r="R63">
+        <v>42521</v>
+      </c>
+      <c r="S63">
+        <v>70700</v>
+      </c>
+      <c r="T63">
+        <v>12258</v>
+      </c>
+      <c r="U63">
+        <v>3138</v>
+      </c>
+      <c r="V63">
+        <v>1184</v>
+      </c>
+      <c r="W63">
+        <v>-270</v>
+      </c>
+      <c r="X63">
+        <v>-626</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>-258</v>
+      </c>
+      <c r="AA63">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42613</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>1249</v>
+      </c>
+      <c r="D64">
+        <v>9061</v>
+      </c>
+      <c r="E64">
+        <v>3526</v>
+      </c>
+      <c r="F64">
+        <v>4123</v>
+      </c>
+      <c r="G64">
+        <v>14589</v>
+      </c>
+      <c r="H64">
+        <v>21156</v>
+      </c>
+      <c r="I64">
+        <v>2088</v>
+      </c>
+      <c r="J64">
+        <v>1993</v>
+      </c>
+      <c r="K64">
+        <v>22</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>-4</v>
+      </c>
+      <c r="N64">
+        <v>5363</v>
+      </c>
+      <c r="O64">
+        <v>8991</v>
+      </c>
+      <c r="P64">
+        <v>2188</v>
+      </c>
+      <c r="Q64">
+        <v>-479</v>
+      </c>
+      <c r="R64">
+        <v>42613</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>12165</v>
+      </c>
+      <c r="U64">
+        <v>2659</v>
+      </c>
+      <c r="V64">
+        <v>788</v>
+      </c>
+      <c r="W64">
+        <v>-269</v>
+      </c>
+      <c r="X64">
+        <v>-1202</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>243</v>
+      </c>
+      <c r="AA64">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42704</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>842</v>
+      </c>
+      <c r="D65">
+        <v>8180</v>
+      </c>
+      <c r="E65">
+        <v>3478</v>
+      </c>
+      <c r="F65">
+        <v>3616</v>
+      </c>
+      <c r="G65">
+        <v>16011</v>
+      </c>
+      <c r="H65">
+        <v>22652</v>
+      </c>
+      <c r="I65">
+        <v>2033</v>
+      </c>
+      <c r="J65">
+        <v>3473</v>
+      </c>
+      <c r="K65">
+        <v>20</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>5225</v>
+      </c>
+      <c r="O65">
+        <v>10329</v>
+      </c>
+      <c r="P65">
+        <v>3537</v>
+      </c>
+      <c r="Q65">
+        <v>1680</v>
+      </c>
+      <c r="R65">
+        <v>42704</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>12323</v>
+      </c>
+      <c r="U65">
+        <v>4339</v>
+      </c>
+      <c r="V65">
+        <v>982</v>
+      </c>
+      <c r="W65">
+        <v>-267</v>
+      </c>
+      <c r="X65">
+        <v>436</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>546</v>
+      </c>
+      <c r="AA65">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42794</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>1141</v>
+      </c>
+      <c r="D66">
+        <v>8432</v>
+      </c>
+      <c r="E66">
+        <v>3752</v>
+      </c>
+      <c r="F66">
+        <v>3750</v>
+      </c>
+      <c r="G66">
+        <v>16205</v>
+      </c>
+      <c r="H66">
+        <v>23152</v>
+      </c>
+      <c r="I66">
+        <v>1938</v>
+      </c>
+      <c r="J66">
+        <v>3472</v>
+      </c>
+      <c r="K66">
+        <v>23</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>5271</v>
+      </c>
+      <c r="O66">
+        <v>10430</v>
+      </c>
+      <c r="P66">
+        <v>3501</v>
+      </c>
+      <c r="Q66">
+        <v>-318</v>
+      </c>
+      <c r="R66">
+        <v>42794</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>12722</v>
+      </c>
+      <c r="U66">
+        <v>4021</v>
+      </c>
+      <c r="V66">
+        <v>1114</v>
+      </c>
+      <c r="W66">
+        <v>-298</v>
+      </c>
+      <c r="X66">
+        <v>-717</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>-480</v>
+      </c>
+      <c r="AA66">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42886</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>1008</v>
+      </c>
+      <c r="D67">
+        <v>8677</v>
+      </c>
+      <c r="E67">
+        <v>3677</v>
+      </c>
+      <c r="F67">
+        <v>3823</v>
+      </c>
+      <c r="G67">
+        <v>16061</v>
+      </c>
+      <c r="H67">
+        <v>23259</v>
+      </c>
+      <c r="I67">
+        <v>2048</v>
+      </c>
+      <c r="J67">
+        <v>3471</v>
+      </c>
+      <c r="K67">
+        <v>325</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>5474</v>
+      </c>
+      <c r="O67">
+        <v>10852</v>
+      </c>
+      <c r="P67">
+        <v>3802</v>
+      </c>
+      <c r="Q67">
+        <v>-213</v>
+      </c>
+      <c r="R67">
+        <v>42886</v>
+      </c>
+      <c r="S67">
+        <v>74400</v>
+      </c>
+      <c r="T67">
+        <v>12407</v>
+      </c>
+      <c r="U67">
+        <v>3808</v>
+      </c>
+      <c r="V67">
+        <v>962</v>
+      </c>
+      <c r="W67">
+        <v>-299</v>
+      </c>
+      <c r="X67">
+        <v>-665</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>-191</v>
+      </c>
+      <c r="AA67">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42978</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>950</v>
+      </c>
+      <c r="D68">
+        <v>9070</v>
+      </c>
+      <c r="E68">
+        <v>3871</v>
+      </c>
+      <c r="F68">
+        <v>3962</v>
+      </c>
+      <c r="G68">
+        <v>16192</v>
+      </c>
+      <c r="H68">
+        <v>23647</v>
+      </c>
+      <c r="I68">
+        <v>2116</v>
+      </c>
+      <c r="J68">
+        <v>3472</v>
+      </c>
+      <c r="K68">
+        <v>335</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>-7</v>
+      </c>
+      <c r="N68">
+        <v>6056</v>
+      </c>
+      <c r="O68">
+        <v>11654</v>
+      </c>
+      <c r="P68">
+        <v>3814</v>
+      </c>
+      <c r="Q68">
+        <v>-395</v>
+      </c>
+      <c r="R68">
+        <v>42978</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>11993</v>
+      </c>
+      <c r="U68">
+        <v>3413</v>
+      </c>
+      <c r="V68">
+        <v>575</v>
+      </c>
+      <c r="W68">
+        <v>-300</v>
+      </c>
+      <c r="X68">
+        <v>-998</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>258</v>
+      </c>
+      <c r="AA68">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43069</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>767</v>
+      </c>
+      <c r="D69">
+        <v>8554</v>
+      </c>
+      <c r="E69">
+        <v>3613</v>
+      </c>
+      <c r="F69">
+        <v>3678</v>
+      </c>
+      <c r="G69">
+        <v>16582</v>
+      </c>
+      <c r="H69">
+        <v>24055</v>
+      </c>
+      <c r="I69">
+        <v>2141</v>
+      </c>
+      <c r="J69">
+        <v>3472</v>
+      </c>
+      <c r="K69">
+        <v>1229</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>6750</v>
+      </c>
+      <c r="O69">
+        <v>12297</v>
+      </c>
+      <c r="P69">
+        <v>4711</v>
+      </c>
+      <c r="Q69">
+        <v>891</v>
+      </c>
+      <c r="R69">
+        <v>43069</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>11758</v>
+      </c>
+      <c r="U69">
+        <v>4304</v>
+      </c>
+      <c r="V69">
+        <v>1323</v>
+      </c>
+      <c r="W69">
+        <v>-295</v>
+      </c>
+      <c r="X69">
+        <v>-216</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>13</v>
+      </c>
+      <c r="AA69">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43159</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>-921</v>
+      </c>
+      <c r="D70">
+        <v>8984</v>
+      </c>
+      <c r="E70">
+        <v>3792</v>
+      </c>
+      <c r="F70">
+        <v>3938</v>
+      </c>
+      <c r="G70">
+        <v>15355</v>
+      </c>
+      <c r="H70">
+        <v>22552</v>
+      </c>
+      <c r="I70">
+        <v>1961</v>
+      </c>
+      <c r="J70">
+        <v>3469</v>
+      </c>
+      <c r="K70">
+        <v>11</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>5783</v>
+      </c>
+      <c r="O70">
+        <v>12770</v>
+      </c>
+      <c r="P70">
+        <v>3486</v>
+      </c>
+      <c r="Q70">
+        <v>-642</v>
+      </c>
+      <c r="R70">
+        <v>43159</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>9782</v>
+      </c>
+      <c r="U70">
+        <v>3662</v>
+      </c>
+      <c r="V70">
+        <v>787</v>
+      </c>
+      <c r="W70">
+        <v>-325</v>
+      </c>
+      <c r="X70">
+        <v>-2234</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>983</v>
+      </c>
+      <c r="AA70">
+        <v>-921</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43251</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>1137</v>
+      </c>
+      <c r="D71">
+        <v>9789</v>
+      </c>
+      <c r="E71">
+        <v>3498</v>
+      </c>
+      <c r="F71">
+        <v>4378</v>
+      </c>
+      <c r="G71">
+        <v>15134</v>
+      </c>
+      <c r="H71">
+        <v>22536</v>
+      </c>
+      <c r="I71">
+        <v>2279</v>
+      </c>
+      <c r="J71">
+        <v>3468</v>
+      </c>
+      <c r="K71">
+        <v>336</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>6040</v>
+      </c>
+      <c r="O71">
+        <v>12724</v>
+      </c>
+      <c r="P71">
+        <v>3885</v>
+      </c>
+      <c r="Q71">
+        <v>587</v>
+      </c>
+      <c r="R71">
+        <v>43251</v>
+      </c>
+      <c r="S71">
+        <v>73100</v>
+      </c>
+      <c r="T71">
+        <v>9812</v>
+      </c>
+      <c r="U71">
+        <v>4249</v>
+      </c>
+      <c r="V71">
+        <v>2270</v>
+      </c>
+      <c r="W71">
+        <v>-323</v>
+      </c>
+      <c r="X71">
+        <v>-1387</v>
+      </c>
+      <c r="Y71">
+        <v>75</v>
+      </c>
+      <c r="Z71">
+        <v>72</v>
+      </c>
+      <c r="AA71">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43343</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>1092</v>
+      </c>
+      <c r="D72">
+        <v>9948</v>
+      </c>
+      <c r="E72">
+        <v>4330</v>
+      </c>
+      <c r="F72">
+        <v>4397</v>
+      </c>
+      <c r="G72">
+        <v>15501</v>
+      </c>
+      <c r="H72">
+        <v>22483</v>
+      </c>
+      <c r="I72">
+        <v>2333</v>
+      </c>
+      <c r="J72">
+        <v>3467</v>
+      </c>
+      <c r="K72">
+        <v>13</v>
+      </c>
+      <c r="L72">
+        <v>-321</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>6708</v>
+      </c>
+      <c r="O72">
+        <v>13491</v>
+      </c>
+      <c r="P72">
+        <v>3486</v>
+      </c>
+      <c r="Q72">
+        <v>-967</v>
+      </c>
+      <c r="R72">
+        <v>43343</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>8992</v>
+      </c>
+      <c r="U72">
+        <v>3282</v>
+      </c>
+      <c r="V72">
+        <v>1301</v>
+      </c>
+      <c r="W72">
+        <v>-320</v>
+      </c>
+      <c r="X72">
+        <v>-1832</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>6</v>
+      </c>
+      <c r="AA72">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43434</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>847</v>
+      </c>
+      <c r="D73">
+        <v>9374</v>
+      </c>
+      <c r="E73">
+        <v>4346</v>
+      </c>
+      <c r="F73">
+        <v>4105</v>
+      </c>
+      <c r="G73">
+        <v>15566</v>
+      </c>
+      <c r="H73">
+        <v>22677</v>
+      </c>
+      <c r="I73">
+        <v>2574</v>
+      </c>
+      <c r="J73">
+        <v>3466</v>
+      </c>
+      <c r="K73">
+        <v>9</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>7278</v>
+      </c>
+      <c r="O73">
+        <v>13948</v>
+      </c>
+      <c r="P73">
+        <v>3481</v>
+      </c>
+      <c r="Q73">
+        <v>141</v>
+      </c>
+      <c r="R73">
+        <v>43434</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>8729</v>
+      </c>
+      <c r="U73">
+        <v>3423</v>
+      </c>
+      <c r="V73">
+        <v>1524</v>
+      </c>
+      <c r="W73">
+        <v>-318</v>
+      </c>
+      <c r="X73">
+        <v>-1458</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>375</v>
+      </c>
+      <c r="AA73">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43524</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>1101</v>
+      </c>
+      <c r="D74">
+        <v>9611</v>
+      </c>
+      <c r="E74">
+        <v>4549</v>
+      </c>
+      <c r="F74">
+        <v>4339</v>
+      </c>
+      <c r="G74">
+        <v>15796</v>
+      </c>
+      <c r="H74">
+        <v>22921</v>
+      </c>
+      <c r="I74">
+        <v>2307</v>
+      </c>
+      <c r="J74">
+        <v>3465</v>
+      </c>
+      <c r="K74">
+        <v>16</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>7281</v>
+      </c>
+      <c r="O74">
+        <v>13960</v>
+      </c>
+      <c r="P74">
+        <v>3487</v>
+      </c>
+      <c r="Q74">
+        <v>272</v>
+      </c>
+      <c r="R74">
+        <v>43524</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>8961</v>
+      </c>
+      <c r="U74">
+        <v>3695</v>
+      </c>
+      <c r="V74">
+        <v>1068</v>
+      </c>
+      <c r="W74">
+        <v>-348</v>
+      </c>
+      <c r="X74">
+        <v>-977</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>339</v>
+      </c>
+      <c r="AA74">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43616</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>989</v>
+      </c>
+      <c r="D75">
+        <v>10184</v>
+      </c>
+      <c r="E75">
+        <v>4272</v>
+      </c>
+      <c r="F75">
+        <v>4633</v>
+      </c>
+      <c r="G75">
+        <v>16525</v>
+      </c>
+      <c r="H75">
+        <v>23717</v>
+      </c>
+      <c r="I75">
+        <v>2612</v>
+      </c>
+      <c r="J75">
+        <v>3464</v>
+      </c>
+      <c r="K75">
+        <v>9</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>7866</v>
+      </c>
+      <c r="O75">
+        <v>14677</v>
+      </c>
+      <c r="P75">
+        <v>3853</v>
+      </c>
+      <c r="Q75">
+        <v>771</v>
+      </c>
+      <c r="R75">
+        <v>43616</v>
+      </c>
+      <c r="S75">
+        <v>76700</v>
+      </c>
+      <c r="T75">
+        <v>9040</v>
+      </c>
+      <c r="U75">
+        <v>4466</v>
+      </c>
+      <c r="V75">
+        <v>2010</v>
+      </c>
+      <c r="W75">
+        <v>-346</v>
+      </c>
+      <c r="X75">
+        <v>-1026</v>
+      </c>
+      <c r="Y75">
+        <v>342</v>
+      </c>
+      <c r="Z75">
+        <v>130</v>
+      </c>
+      <c r="AA75">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43708</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>1367</v>
+      </c>
+      <c r="D76">
+        <v>10660</v>
+      </c>
+      <c r="E76">
+        <v>4656</v>
+      </c>
+      <c r="F76">
+        <v>4871</v>
+      </c>
+      <c r="G76">
+        <v>16228</v>
+      </c>
+      <c r="H76">
+        <v>26249</v>
+      </c>
+      <c r="I76">
+        <v>2716</v>
+      </c>
+      <c r="J76">
+        <v>3463</v>
+      </c>
+      <c r="K76">
+        <v>250</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>-2</v>
+      </c>
+      <c r="N76">
+        <v>8070</v>
+      </c>
+      <c r="O76">
+        <v>17049</v>
+      </c>
+      <c r="P76">
+        <v>6821</v>
+      </c>
+      <c r="Q76">
+        <v>-1020</v>
+      </c>
+      <c r="R76">
+        <v>43708</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>9200</v>
+      </c>
+      <c r="U76">
+        <v>3446</v>
+      </c>
+      <c r="V76">
+        <v>394</v>
+      </c>
+      <c r="W76">
+        <v>-345</v>
+      </c>
+      <c r="X76">
+        <v>-1010</v>
+      </c>
+      <c r="Y76">
+        <v>2675</v>
+      </c>
+      <c r="Z76">
+        <v>45</v>
+      </c>
+      <c r="AA76">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43799</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>1115</v>
+      </c>
+      <c r="D77">
+        <v>10326</v>
+      </c>
+      <c r="E77">
+        <v>4792</v>
+      </c>
+      <c r="F77">
+        <v>4544</v>
+      </c>
+      <c r="G77">
+        <v>16369</v>
+      </c>
+      <c r="H77">
+        <v>26602</v>
+      </c>
+      <c r="I77">
+        <v>2627</v>
+      </c>
+      <c r="J77">
+        <v>3462</v>
+      </c>
+      <c r="K77">
+        <v>300</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>8264</v>
+      </c>
+      <c r="O77">
+        <v>17251</v>
+      </c>
+      <c r="P77">
+        <v>6922</v>
+      </c>
+      <c r="Q77">
+        <v>-376</v>
+      </c>
+      <c r="R77">
+        <v>43799</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>9351</v>
+      </c>
+      <c r="U77">
+        <v>3070</v>
+      </c>
+      <c r="V77">
+        <v>912</v>
+      </c>
+      <c r="W77">
+        <v>-344</v>
+      </c>
+      <c r="X77">
+        <v>-858</v>
+      </c>
+      <c r="Y77">
+        <v>2723</v>
+      </c>
+      <c r="Z77">
+        <v>-202</v>
+      </c>
+      <c r="AA77">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43890</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>847</v>
+      </c>
+      <c r="D78">
+        <v>10104</v>
+      </c>
+      <c r="E78">
+        <v>4473</v>
+      </c>
+      <c r="F78">
+        <v>4473</v>
+      </c>
+      <c r="G78">
+        <v>15744</v>
+      </c>
+      <c r="H78">
+        <v>26220</v>
+      </c>
+      <c r="I78">
+        <v>2221</v>
+      </c>
+      <c r="J78">
+        <v>3463</v>
+      </c>
+      <c r="K78">
+        <v>9</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>8280</v>
+      </c>
+      <c r="O78">
+        <v>17175</v>
+      </c>
+      <c r="P78">
+        <v>6656</v>
+      </c>
+      <c r="Q78">
+        <v>-207</v>
+      </c>
+      <c r="R78">
+        <v>43890</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>9045</v>
+      </c>
+      <c r="U78">
+        <v>2863</v>
+      </c>
+      <c r="V78">
+        <v>1180</v>
+      </c>
+      <c r="W78">
+        <v>-382</v>
+      </c>
+      <c r="X78">
+        <v>-1442</v>
+      </c>
+      <c r="Y78">
+        <v>2758</v>
+      </c>
+      <c r="Z78">
+        <v>166</v>
+      </c>
+      <c r="AA78">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>-790</v>
+      </c>
+      <c r="D79">
+        <v>6313</v>
+      </c>
+      <c r="E79">
+        <v>2749</v>
+      </c>
+      <c r="F79">
+        <v>2353</v>
+      </c>
+      <c r="G79">
+        <v>20556</v>
+      </c>
+      <c r="H79">
+        <v>31342</v>
+      </c>
+      <c r="I79">
+        <v>2248</v>
+      </c>
+      <c r="J79">
+        <v>9406</v>
+      </c>
+      <c r="K79">
+        <v>248</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>8284</v>
+      </c>
+      <c r="O79">
+        <v>23287</v>
+      </c>
+      <c r="P79">
+        <v>13015</v>
+      </c>
+      <c r="Q79">
+        <v>5485</v>
+      </c>
+      <c r="R79">
+        <v>43982</v>
+      </c>
+      <c r="S79">
+        <v>75400</v>
+      </c>
+      <c r="T79">
+        <v>8055</v>
+      </c>
+      <c r="U79">
+        <v>8348</v>
+      </c>
+      <c r="V79">
+        <v>-1</v>
+      </c>
+      <c r="W79">
+        <v>-381</v>
+      </c>
+      <c r="X79">
+        <v>5801</v>
+      </c>
+      <c r="Y79">
+        <v>2913</v>
+      </c>
+      <c r="Z79">
+        <v>18</v>
+      </c>
+      <c r="AA79">
+        <v>-790</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44074</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>1518</v>
+      </c>
+      <c r="D80">
+        <v>10594</v>
+      </c>
+      <c r="E80">
+        <v>3813</v>
+      </c>
+      <c r="F80">
+        <v>4741</v>
+      </c>
+      <c r="G80">
+        <v>21937</v>
+      </c>
+      <c r="H80">
+        <v>33258</v>
+      </c>
+      <c r="I80">
+        <v>1983</v>
+      </c>
+      <c r="J80">
+        <v>9408</v>
+      </c>
+      <c r="K80">
+        <v>137</v>
+      </c>
+      <c r="L80">
+        <v>-30</v>
+      </c>
+      <c r="M80">
+        <v>-83</v>
+      </c>
+      <c r="N80">
+        <v>8619</v>
+      </c>
+      <c r="O80">
+        <v>24034</v>
+      </c>
+      <c r="P80">
+        <v>12966</v>
+      </c>
+      <c r="Q80">
+        <v>-200</v>
+      </c>
+      <c r="R80">
+        <v>44074</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>9224</v>
+      </c>
+      <c r="U80">
+        <v>8148</v>
+      </c>
+      <c r="V80">
+        <v>882</v>
+      </c>
+      <c r="W80">
+        <v>-384</v>
+      </c>
+      <c r="X80">
+        <v>-248</v>
+      </c>
+      <c r="Y80">
+        <v>2961</v>
+      </c>
+      <c r="Z80">
+        <v>-715</v>
+      </c>
+      <c r="AA80">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44165</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>1251</v>
+      </c>
+      <c r="D81">
         <v>11243</v>
       </c>
-      <c r="E42">
+      <c r="E81">
         <v>3713</v>
       </c>
-      <c r="F42">
+      <c r="F81">
         <v>4877</v>
       </c>
-      <c r="G42">
+      <c r="G81">
         <v>23607</v>
       </c>
-      <c r="H42">
+      <c r="H81">
         <v>34836</v>
       </c>
-      <c r="I42">
+      <c r="I81">
         <v>2154</v>
       </c>
-      <c r="J42">
+      <c r="J81">
         <v>9410</v>
       </c>
-      <c r="K42">
+      <c r="K81">
         <v>41</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
         <v>8871</v>
       </c>
-      <c r="O42">
+      <c r="O81">
         <v>24196</v>
       </c>
-      <c r="P42">
+      <c r="P81">
         <v>12805</v>
       </c>
-      <c r="Q42">
+      <c r="Q81">
         <v>487</v>
       </c>
-      <c r="R42">
+      <c r="R81">
         <v>44165</v>
       </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
         <v>10640</v>
       </c>
-      <c r="U42">
+      <c r="U81">
         <v>8635</v>
       </c>
-      <c r="V42">
+      <c r="V81">
         <v>2473</v>
       </c>
-      <c r="W42">
+      <c r="W81">
         <v>-385</v>
       </c>
-      <c r="X42">
+      <c r="X81">
         <v>-44</v>
       </c>
-      <c r="Y42">
+      <c r="Y81">
         <v>2896</v>
       </c>
-      <c r="Z42">
+      <c r="Z81">
         <v>-2074</v>
       </c>
-      <c r="AA42">
+      <c r="AA81">
         <v>1251</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44255</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>10357</v>
+      </c>
+      <c r="E82">
+        <v>3669</v>
+      </c>
+      <c r="F82">
+        <v>4719</v>
+      </c>
+      <c r="G82">
+        <v>24700</v>
+      </c>
+      <c r="H82">
+        <v>36185</v>
+      </c>
+      <c r="I82">
+        <v>2257</v>
+      </c>
+      <c r="J82">
+        <v>9412</v>
+      </c>
+      <c r="K82">
+        <v>4</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>8894</v>
+      </c>
+      <c r="O82">
+        <v>24254</v>
+      </c>
+      <c r="P82">
+        <v>12850</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>44255</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <v>11931</v>
+      </c>
+      <c r="U82">
+        <v>8516</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
+        <v>0</v>
+      </c>
+      <c r="Y82">
+        <v>2964</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
+        <v>1449</v>
       </c>
     </row>
   </sheetData>
